--- a/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
+++ b/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
+++ b/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
+++ b/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
+++ b/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00221754</t>

--- a/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
+++ b/publipostage2/01hq89f96/liste_essais_cliniques_identifies_01hq89f96.xlsx
@@ -67,127 +67,160 @@
     <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
+    <t>NCT00221624</t>
+  </si>
+  <si>
     <t>NCT00221754</t>
   </si>
   <si>
-    <t>NCT00221624</t>
-  </si>
-  <si>
     <t>NCT00221650</t>
   </si>
   <si>
     <t>NCT03181802</t>
   </si>
   <si>
+    <t>NCT00221793</t>
+  </si>
+  <si>
     <t>NCT00273663</t>
   </si>
   <si>
-    <t>NCT00221793</t>
-  </si>
-  <si>
     <t>NCT00454259</t>
   </si>
   <si>
+    <t>NCT00413257</t>
+  </si>
+  <si>
+    <t>NCT00438035</t>
+  </si>
+  <si>
     <t>NCT00539916</t>
   </si>
   <si>
-    <t>NCT00438035</t>
-  </si>
-  <si>
-    <t>NCT00413257</t>
+    <t>NCT00882297</t>
+  </si>
+  <si>
+    <t>NCT00838266</t>
+  </si>
+  <si>
+    <t>NCT00534690</t>
+  </si>
+  <si>
+    <t>NCT00304850</t>
+  </si>
+  <si>
+    <t>NCT00556738</t>
+  </si>
+  <si>
+    <t>NCT00560456</t>
+  </si>
+  <si>
+    <t>NCT00461955</t>
   </si>
   <si>
     <t>NCT00808730</t>
   </si>
   <si>
-    <t>NCT00838266</t>
-  </si>
-  <si>
-    <t>NCT00461955</t>
-  </si>
-  <si>
-    <t>NCT00556738</t>
-  </si>
-  <si>
-    <t>NCT00882297</t>
-  </si>
-  <si>
-    <t>NCT00304850</t>
-  </si>
-  <si>
-    <t>NCT00560456</t>
-  </si>
-  <si>
-    <t>NCT00534690</t>
+    <t>NCT00926432</t>
+  </si>
+  <si>
+    <t>NCT00479934</t>
+  </si>
+  <si>
+    <t>NCT00221767</t>
+  </si>
+  <si>
+    <t>NCT00337051</t>
   </si>
   <si>
     <t>NCT00241228</t>
   </si>
   <si>
+    <t>NCT00221702</t>
+  </si>
+  <si>
+    <t>NCT00506870</t>
+  </si>
+  <si>
+    <t>NCT00486577</t>
+  </si>
+  <si>
+    <t>NCT01223157</t>
+  </si>
+  <si>
     <t>NCT00825422</t>
   </si>
   <si>
-    <t>NCT00926432</t>
-  </si>
-  <si>
-    <t>NCT00221702</t>
-  </si>
-  <si>
-    <t>NCT00479934</t>
-  </si>
-  <si>
-    <t>NCT00221767</t>
-  </si>
-  <si>
-    <t>NCT00486577</t>
-  </si>
-  <si>
-    <t>NCT00506870</t>
-  </si>
-  <si>
-    <t>NCT00337051</t>
-  </si>
-  <si>
-    <t>NCT01223157</t>
+    <t>NCT00624728</t>
+  </si>
+  <si>
+    <t>NCT00931333</t>
+  </si>
+  <si>
+    <t>NCT01069445</t>
+  </si>
+  <si>
+    <t>NCT00743561</t>
   </si>
   <si>
     <t>NCT00607854</t>
   </si>
   <si>
+    <t>NCT00478985</t>
+  </si>
+  <si>
+    <t>NCT01047852</t>
+  </si>
+  <si>
+    <t>NCT00949806</t>
+  </si>
+  <si>
+    <t>NCT01223144</t>
+  </si>
+  <si>
+    <t>NCT00804804</t>
+  </si>
+  <si>
+    <t>NCT01070004</t>
+  </si>
+  <si>
+    <t>NCT01043198</t>
+  </si>
+  <si>
     <t>NCT00741949</t>
   </si>
   <si>
-    <t>NCT01223144</t>
-  </si>
-  <si>
-    <t>NCT01043198</t>
-  </si>
-  <si>
-    <t>NCT00949806</t>
-  </si>
-  <si>
-    <t>NCT00624728</t>
-  </si>
-  <si>
-    <t>NCT00804804</t>
-  </si>
-  <si>
-    <t>NCT01047852</t>
-  </si>
-  <si>
-    <t>NCT00743561</t>
-  </si>
-  <si>
-    <t>NCT00931333</t>
-  </si>
-  <si>
-    <t>NCT01069445</t>
-  </si>
-  <si>
-    <t>NCT00478985</t>
-  </si>
-  <si>
-    <t>NCT01070004</t>
+    <t>NCT01056952</t>
+  </si>
+  <si>
+    <t>NCT00437762</t>
+  </si>
+  <si>
+    <t>NCT00510640</t>
+  </si>
+  <si>
+    <t>NCT01220349</t>
+  </si>
+  <si>
+    <t>NCT00459589</t>
+  </si>
+  <si>
+    <t>NCT01421953</t>
+  </si>
+  <si>
+    <t>NCT00646269</t>
+  </si>
+  <si>
+    <t>NCT00896428</t>
+  </si>
+  <si>
+    <t>NCT00241254</t>
+  </si>
+  <si>
+    <t>NCT01178164</t>
+  </si>
+  <si>
+    <t>NCT00916253</t>
   </si>
   <si>
     <t>NCT01167790</t>
@@ -196,283 +229,280 @@
     <t>NCT00833209</t>
   </si>
   <si>
-    <t>NCT01421953</t>
-  </si>
-  <si>
-    <t>NCT01178164</t>
-  </si>
-  <si>
-    <t>NCT00510640</t>
-  </si>
-  <si>
     <t>NCT01170793</t>
   </si>
   <si>
-    <t>NCT00896428</t>
-  </si>
-  <si>
-    <t>NCT01056952</t>
-  </si>
-  <si>
-    <t>NCT00646269</t>
-  </si>
-  <si>
-    <t>NCT00437762</t>
-  </si>
-  <si>
-    <t>NCT00916253</t>
-  </si>
-  <si>
-    <t>NCT00459589</t>
-  </si>
-  <si>
-    <t>NCT01220349</t>
-  </si>
-  <si>
-    <t>NCT00241254</t>
+    <t>NCT01288313</t>
+  </si>
+  <si>
+    <t>NCT00624403</t>
+  </si>
+  <si>
+    <t>NCT00614081</t>
+  </si>
+  <si>
+    <t>NCT00906893</t>
+  </si>
+  <si>
+    <t>NCT00917709</t>
+  </si>
+  <si>
+    <t>NCT01849536</t>
+  </si>
+  <si>
+    <t>NCT01269697</t>
+  </si>
+  <si>
+    <t>NCT01803971</t>
   </si>
   <si>
     <t>NCT00657475</t>
   </si>
   <si>
-    <t>NCT01288313</t>
+    <t>NCT01604694</t>
+  </si>
+  <si>
+    <t>NCT00590837</t>
+  </si>
+  <si>
+    <t>NCT02889224</t>
+  </si>
+  <si>
+    <t>NCT01082419</t>
+  </si>
+  <si>
+    <t>NCT01149525</t>
   </si>
   <si>
     <t>NCT00869882</t>
   </si>
   <si>
-    <t>NCT02889224</t>
-  </si>
-  <si>
-    <t>NCT00624403</t>
-  </si>
-  <si>
-    <t>NCT01269697</t>
+    <t>NCT00790686</t>
   </si>
   <si>
     <t>NCT01160874</t>
   </si>
   <si>
-    <t>NCT00917709</t>
-  </si>
-  <si>
-    <t>NCT00790686</t>
-  </si>
-  <si>
-    <t>NCT01849536</t>
-  </si>
-  <si>
-    <t>NCT00906893</t>
-  </si>
-  <si>
-    <t>NCT01803971</t>
-  </si>
-  <si>
-    <t>NCT01082419</t>
-  </si>
-  <si>
-    <t>NCT01149525</t>
-  </si>
-  <si>
-    <t>NCT00590837</t>
-  </si>
-  <si>
-    <t>NCT00614081</t>
-  </si>
-  <si>
-    <t>NCT01604694</t>
+    <t>NCT01421927</t>
+  </si>
+  <si>
+    <t>NCT01484821</t>
+  </si>
+  <si>
+    <t>NCT01234415</t>
+  </si>
+  <si>
+    <t>NCT02113254</t>
+  </si>
+  <si>
+    <t>NCT01365858</t>
+  </si>
+  <si>
+    <t>NCT01613989</t>
   </si>
   <si>
     <t>NCT01619644</t>
   </si>
   <si>
-    <t>NCT01234415</t>
+    <t>NCT01034449</t>
+  </si>
+  <si>
+    <t>NCT01844440</t>
+  </si>
+  <si>
+    <t>NCT01555827</t>
+  </si>
+  <si>
+    <t>NCT01270646</t>
+  </si>
+  <si>
+    <t>NCT01517789</t>
+  </si>
+  <si>
+    <t>NCT01344512</t>
   </si>
   <si>
     <t>NCT02056912</t>
   </si>
   <si>
-    <t>NCT01034449</t>
-  </si>
-  <si>
-    <t>NCT01484821</t>
-  </si>
-  <si>
-    <t>NCT01844440</t>
-  </si>
-  <si>
     <t>NCT00906672</t>
   </si>
   <si>
     <t>NCT01235052</t>
   </si>
   <si>
-    <t>NCT01365858</t>
-  </si>
-  <si>
-    <t>NCT01270646</t>
-  </si>
-  <si>
-    <t>NCT01344512</t>
-  </si>
-  <si>
-    <t>NCT01517789</t>
-  </si>
-  <si>
-    <t>NCT02113254</t>
-  </si>
-  <si>
-    <t>NCT01555827</t>
-  </si>
-  <si>
-    <t>NCT01421927</t>
-  </si>
-  <si>
-    <t>NCT01613989</t>
+    <t>NCT02246829</t>
+  </si>
+  <si>
+    <t>NCT01269567</t>
+  </si>
+  <si>
+    <t>NCT01556035</t>
+  </si>
+  <si>
+    <t>NCT01854970</t>
+  </si>
+  <si>
+    <t>NCT01928238</t>
+  </si>
+  <si>
+    <t>NCT01066559</t>
+  </si>
+  <si>
+    <t>NCT01334073</t>
+  </si>
+  <si>
+    <t>NCT02806466</t>
+  </si>
+  <si>
+    <t>NCT01260402</t>
+  </si>
+  <si>
+    <t>NCT01064193</t>
+  </si>
+  <si>
+    <t>NCT01629303</t>
+  </si>
+  <si>
+    <t>NCT01275521</t>
+  </si>
+  <si>
+    <t>NCT01335243</t>
+  </si>
+  <si>
+    <t>NCT01582919</t>
+  </si>
+  <si>
+    <t>NCT01212926</t>
+  </si>
+  <si>
+    <t>NCT01650454</t>
   </si>
   <si>
     <t>NCT02812511</t>
   </si>
   <si>
-    <t>NCT01629303</t>
-  </si>
-  <si>
-    <t>NCT01066559</t>
+    <t>NCT01845935</t>
   </si>
   <si>
     <t>NCT01273259</t>
   </si>
   <si>
-    <t>NCT02806466</t>
-  </si>
-  <si>
-    <t>NCT01064193</t>
-  </si>
-  <si>
-    <t>NCT01275521</t>
-  </si>
-  <si>
-    <t>NCT01335243</t>
-  </si>
-  <si>
-    <t>NCT01334073</t>
-  </si>
-  <si>
-    <t>NCT01212926</t>
-  </si>
-  <si>
-    <t>NCT01556035</t>
-  </si>
-  <si>
-    <t>NCT01260402</t>
-  </si>
-  <si>
-    <t>NCT02246829</t>
-  </si>
-  <si>
-    <t>NCT01650454</t>
-  </si>
-  <si>
-    <t>NCT01928238</t>
-  </si>
-  <si>
-    <t>NCT01845935</t>
-  </si>
-  <si>
-    <t>NCT01269567</t>
-  </si>
-  <si>
-    <t>NCT01582919</t>
-  </si>
-  <si>
-    <t>NCT01854970</t>
+    <t>NCT02251249</t>
+  </si>
+  <si>
+    <t>NCT01252823</t>
+  </si>
+  <si>
+    <t>NCT01432067</t>
+  </si>
+  <si>
+    <t>NCT01982006</t>
+  </si>
+  <si>
+    <t>NCT02100800</t>
+  </si>
+  <si>
+    <t>NCT01817088</t>
   </si>
   <si>
     <t>NCT02590809</t>
   </si>
   <si>
+    <t>NCT02562079</t>
+  </si>
+  <si>
+    <t>NCT02142764</t>
+  </si>
+  <si>
+    <t>NCT01807884</t>
+  </si>
+  <si>
+    <t>NCT01821170</t>
+  </si>
+  <si>
+    <t>NCT01207856</t>
+  </si>
+  <si>
+    <t>NCT02591303</t>
+  </si>
+  <si>
+    <t>NCT02186158</t>
+  </si>
+  <si>
+    <t>NCT01931228</t>
+  </si>
+  <si>
+    <t>NCT02505386</t>
+  </si>
+  <si>
+    <t>NCT02563431</t>
+  </si>
+  <si>
+    <t>NCT03103230</t>
+  </si>
+  <si>
+    <t>NCT01865357</t>
+  </si>
+  <si>
     <t>NCT01687192</t>
   </si>
   <si>
-    <t>NCT01817088</t>
-  </si>
-  <si>
-    <t>NCT02186158</t>
-  </si>
-  <si>
-    <t>NCT02100800</t>
-  </si>
-  <si>
-    <t>NCT01821170</t>
-  </si>
-  <si>
-    <t>NCT02505386</t>
-  </si>
-  <si>
-    <t>NCT01207856</t>
-  </si>
-  <si>
-    <t>NCT01432067</t>
-  </si>
-  <si>
-    <t>NCT01252823</t>
-  </si>
-  <si>
-    <t>NCT01982006</t>
-  </si>
-  <si>
-    <t>NCT01807884</t>
-  </si>
-  <si>
-    <t>NCT02142764</t>
-  </si>
-  <si>
-    <t>NCT03103230</t>
-  </si>
-  <si>
-    <t>NCT02562079</t>
-  </si>
-  <si>
-    <t>NCT02563431</t>
-  </si>
-  <si>
-    <t>NCT01865357</t>
-  </si>
-  <si>
-    <t>NCT01931228</t>
-  </si>
-  <si>
-    <t>NCT02591303</t>
-  </si>
-  <si>
-    <t>NCT02251249</t>
-  </si>
-  <si>
     <t>NCT01254474</t>
   </si>
   <si>
+    <t>NCT03157778</t>
+  </si>
+  <si>
+    <t>NCT01208896</t>
+  </si>
+  <si>
     <t>NCT02104011</t>
   </si>
   <si>
+    <t>NCT02320357</t>
+  </si>
+  <si>
+    <t>NCT01918553</t>
+  </si>
+  <si>
+    <t>NCT02969447</t>
+  </si>
+  <si>
+    <t>NCT03194386</t>
+  </si>
+  <si>
     <t>NCT02821234</t>
   </si>
   <si>
-    <t>NCT02969447</t>
-  </si>
-  <si>
-    <t>NCT01918553</t>
+    <t>NCT03203213</t>
+  </si>
+  <si>
+    <t>NCT02114281</t>
+  </si>
+  <si>
+    <t>NCT02675374</t>
+  </si>
+  <si>
+    <t>NCT02819791</t>
+  </si>
+  <si>
+    <t>NCT01343173</t>
+  </si>
+  <si>
+    <t>NCT01357486</t>
+  </si>
+  <si>
+    <t>NCT02449785</t>
   </si>
   <si>
     <t>NCT01442233</t>
   </si>
   <si>
-    <t>NCT01208896</t>
-  </si>
-  <si>
-    <t>NCT01357486</t>
-  </si>
-  <si>
-    <t>NCT02114281</t>
+    <t>NCT02382861</t>
+  </si>
+  <si>
+    <t>NCT02386137</t>
   </si>
   <si>
     <t>NCT02290587</t>
@@ -481,247 +511,232 @@
     <t>NCT02217371</t>
   </si>
   <si>
-    <t>NCT03194386</t>
-  </si>
-  <si>
-    <t>NCT03203213</t>
-  </si>
-  <si>
-    <t>NCT03157778</t>
-  </si>
-  <si>
-    <t>NCT02320357</t>
-  </si>
-  <si>
-    <t>NCT02386137</t>
-  </si>
-  <si>
-    <t>NCT02675374</t>
-  </si>
-  <si>
-    <t>NCT02819791</t>
-  </si>
-  <si>
-    <t>NCT01343173</t>
-  </si>
-  <si>
-    <t>NCT02382861</t>
-  </si>
-  <si>
-    <t>NCT02449785</t>
+    <t>NCT02710916</t>
+  </si>
+  <si>
+    <t>NCT02251262</t>
+  </si>
+  <si>
+    <t>NCT02629042</t>
+  </si>
+  <si>
+    <t>NCT02471989</t>
+  </si>
+  <si>
+    <t>NCT02990247</t>
+  </si>
+  <si>
+    <t>NCT02520232</t>
+  </si>
+  <si>
+    <t>NCT02860923</t>
+  </si>
+  <si>
+    <t>NCT03370081</t>
+  </si>
+  <si>
+    <t>NCT02389231</t>
+  </si>
+  <si>
+    <t>NCT02328963</t>
+  </si>
+  <si>
+    <t>NCT02762552</t>
+  </si>
+  <si>
+    <t>NCT02727361</t>
   </si>
   <si>
     <t>NCT02334956</t>
   </si>
   <si>
-    <t>NCT02762552</t>
+    <t>NCT02391064</t>
   </si>
   <si>
     <t>NCT03186820</t>
   </si>
   <si>
-    <t>NCT02251262</t>
-  </si>
-  <si>
-    <t>NCT02629042</t>
-  </si>
-  <si>
-    <t>NCT02389231</t>
-  </si>
-  <si>
-    <t>NCT02710916</t>
+    <t>NCT02466997</t>
   </si>
   <si>
     <t>NCT00427375</t>
   </si>
   <si>
-    <t>NCT02328963</t>
-  </si>
-  <si>
-    <t>NCT02471989</t>
-  </si>
-  <si>
     <t>NCT02817789</t>
   </si>
   <si>
-    <t>NCT02466997</t>
-  </si>
-  <si>
-    <t>NCT02391064</t>
-  </si>
-  <si>
-    <t>NCT02990247</t>
-  </si>
-  <si>
-    <t>NCT02520232</t>
-  </si>
-  <si>
-    <t>NCT02727361</t>
-  </si>
-  <si>
-    <t>NCT03370081</t>
-  </si>
-  <si>
-    <t>NCT02860923</t>
+    <t>NCT04124796</t>
+  </si>
+  <si>
+    <t>NCT03031587</t>
+  </si>
+  <si>
+    <t>NCT03604757</t>
+  </si>
+  <si>
+    <t>NCT02559726</t>
+  </si>
+  <si>
+    <t>NCT02466984</t>
+  </si>
+  <si>
+    <t>NCT01329133</t>
+  </si>
+  <si>
+    <t>NCT03349554</t>
+  </si>
+  <si>
+    <t>NCT04002245</t>
   </si>
   <si>
     <t>NCT02389166</t>
   </si>
   <si>
-    <t>NCT04124796</t>
+    <t>NCT02708927</t>
+  </si>
+  <si>
+    <t>NCT03435705</t>
   </si>
   <si>
     <t>NCT03068403</t>
   </si>
   <si>
-    <t>NCT03604757</t>
-  </si>
-  <si>
-    <t>NCT02466984</t>
+    <t>NCT02720458</t>
+  </si>
+  <si>
+    <t>NCT03400813</t>
   </si>
   <si>
     <t>NCT03281018</t>
   </si>
   <si>
+    <t>NCT02813200</t>
+  </si>
+  <si>
+    <t>NCT02164643</t>
+  </si>
+  <si>
     <t>NCT02486341</t>
   </si>
   <si>
-    <t>NCT02708927</t>
-  </si>
-  <si>
-    <t>NCT04002245</t>
-  </si>
-  <si>
-    <t>NCT02164643</t>
-  </si>
-  <si>
-    <t>NCT02559726</t>
-  </si>
-  <si>
-    <t>NCT03349554</t>
-  </si>
-  <si>
-    <t>NCT03400813</t>
-  </si>
-  <si>
-    <t>NCT02720458</t>
-  </si>
-  <si>
-    <t>NCT03435705</t>
-  </si>
-  <si>
-    <t>NCT02813200</t>
-  </si>
-  <si>
-    <t>NCT03031587</t>
-  </si>
-  <si>
-    <t>NCT01329133</t>
+    <t>NCT03813797</t>
+  </si>
+  <si>
+    <t>NCT03695861</t>
   </si>
   <si>
     <t>NCT03512054</t>
   </si>
   <si>
-    <t>NCT03695861</t>
+    <t>NCT02984462</t>
+  </si>
+  <si>
+    <t>NCT02855619</t>
+  </si>
+  <si>
+    <t>NCT03078218</t>
+  </si>
+  <si>
+    <t>NCT03431805</t>
+  </si>
+  <si>
+    <t>NCT03604510</t>
+  </si>
+  <si>
+    <t>NCT03078426</t>
+  </si>
+  <si>
+    <t>NCT03140267</t>
+  </si>
+  <si>
+    <t>NCT02647749</t>
+  </si>
+  <si>
+    <t>NCT03339661</t>
+  </si>
+  <si>
+    <t>NCT02264925</t>
+  </si>
+  <si>
+    <t>NCT03918161</t>
+  </si>
+  <si>
+    <t>NCT01774630</t>
+  </si>
+  <si>
+    <t>NCT03265366</t>
   </si>
   <si>
     <t>NCT04371029</t>
   </si>
   <si>
-    <t>NCT03431805</t>
+    <t>NCT03295864</t>
   </si>
   <si>
     <t>NCT03742947</t>
   </si>
   <si>
-    <t>NCT03078426</t>
-  </si>
-  <si>
-    <t>NCT03604510</t>
-  </si>
-  <si>
-    <t>NCT03078218</t>
-  </si>
-  <si>
-    <t>NCT01774630</t>
-  </si>
-  <si>
-    <t>NCT03918161</t>
-  </si>
-  <si>
-    <t>NCT02984462</t>
-  </si>
-  <si>
-    <t>NCT03265366</t>
-  </si>
-  <si>
-    <t>NCT03339661</t>
-  </si>
-  <si>
-    <t>NCT03140267</t>
-  </si>
-  <si>
-    <t>NCT03813797</t>
-  </si>
-  <si>
-    <t>NCT02647749</t>
-  </si>
-  <si>
-    <t>NCT02264925</t>
-  </si>
-  <si>
-    <t>NCT03295864</t>
-  </si>
-  <si>
-    <t>NCT02855619</t>
-  </si>
-  <si>
     <t>NCT03577483</t>
   </si>
   <si>
+    <t>NCT04426188</t>
+  </si>
+  <si>
+    <t>NCT03610022</t>
+  </si>
+  <si>
+    <t>NCT04042584</t>
+  </si>
+  <si>
+    <t>NCT03827551</t>
+  </si>
+  <si>
+    <t>NCT04936503</t>
+  </si>
+  <si>
     <t>NCT05180643</t>
   </si>
   <si>
+    <t>NCT04517903</t>
+  </si>
+  <si>
+    <t>NCT03575156</t>
+  </si>
+  <si>
+    <t>NCT03901287</t>
+  </si>
+  <si>
+    <t>NCT03720275</t>
+  </si>
+  <si>
+    <t>NCT04581057</t>
+  </si>
+  <si>
+    <t>NCT04405986</t>
+  </si>
+  <si>
+    <t>NCT03515486</t>
+  </si>
+  <si>
+    <t>NCT04138797</t>
+  </si>
+  <si>
+    <t>NCT04129905</t>
+  </si>
+  <si>
+    <t>NCT03606798</t>
+  </si>
+  <si>
     <t>NCT04356495</t>
   </si>
   <si>
-    <t>NCT03515486</t>
-  </si>
-  <si>
-    <t>NCT04405986</t>
-  </si>
-  <si>
-    <t>NCT04581057</t>
-  </si>
-  <si>
-    <t>NCT03827551</t>
-  </si>
-  <si>
-    <t>NCT03720275</t>
-  </si>
-  <si>
-    <t>NCT03610022</t>
-  </si>
-  <si>
-    <t>NCT03901287</t>
-  </si>
-  <si>
-    <t>NCT04129905</t>
-  </si>
-  <si>
-    <t>NCT04936503</t>
-  </si>
-  <si>
-    <t>NCT04426188</t>
-  </si>
-  <si>
-    <t>NCT03606798</t>
-  </si>
-  <si>
-    <t>NCT04517903</t>
-  </si>
-  <si>
-    <t>NCT04042584</t>
+    <t>NCT02450604</t>
+  </si>
+  <si>
+    <t>NCT04596449</t>
+  </si>
+  <si>
+    <t>NCT03943914</t>
   </si>
   <si>
     <t>NCT02264899</t>
@@ -733,192 +748,177 @@
     <t>NCT02417272</t>
   </si>
   <si>
-    <t>NCT04596449</t>
-  </si>
-  <si>
-    <t>NCT02450604</t>
-  </si>
-  <si>
-    <t>NCT04138797</t>
-  </si>
-  <si>
-    <t>NCT03943914</t>
-  </si>
-  <si>
-    <t>NCT03575156</t>
+    <t>NCT04530292</t>
+  </si>
+  <si>
+    <t>NCT04798053</t>
+  </si>
+  <si>
+    <t>NCT05366660</t>
+  </si>
+  <si>
+    <t>NCT02750371</t>
+  </si>
+  <si>
+    <t>NCT04747353</t>
+  </si>
+  <si>
+    <t>NCT04636320</t>
+  </si>
+  <si>
+    <t>NCT02407782</t>
+  </si>
+  <si>
+    <t>NCT04113187</t>
+  </si>
+  <si>
+    <t>NCT04009811</t>
+  </si>
+  <si>
+    <t>NCT04569175</t>
+  </si>
+  <si>
+    <t>NCT04272281</t>
+  </si>
+  <si>
+    <t>NCT03923439</t>
+  </si>
+  <si>
+    <t>NCT04044495</t>
+  </si>
+  <si>
+    <t>NCT05546801</t>
+  </si>
+  <si>
+    <t>NCT04201444</t>
+  </si>
+  <si>
+    <t>NCT04921514</t>
   </si>
   <si>
     <t>NCT02364089</t>
   </si>
   <si>
-    <t>NCT02750371</t>
-  </si>
-  <si>
-    <t>NCT04747353</t>
-  </si>
-  <si>
-    <t>NCT05366660</t>
-  </si>
-  <si>
     <t>NCT04440566</t>
   </si>
   <si>
-    <t>NCT02407782</t>
-  </si>
-  <si>
-    <t>NCT04636320</t>
-  </si>
-  <si>
-    <t>NCT04272281</t>
-  </si>
-  <si>
-    <t>NCT04009811</t>
-  </si>
-  <si>
-    <t>NCT04798053</t>
-  </si>
-  <si>
-    <t>NCT04921514</t>
-  </si>
-  <si>
-    <t>NCT04530292</t>
-  </si>
-  <si>
-    <t>NCT05546801</t>
-  </si>
-  <si>
-    <t>NCT03923439</t>
-  </si>
-  <si>
-    <t>NCT04569175</t>
-  </si>
-  <si>
-    <t>NCT04113187</t>
-  </si>
-  <si>
-    <t>NCT04201444</t>
-  </si>
-  <si>
-    <t>NCT04044495</t>
+    <t>NCT03768648</t>
+  </si>
+  <si>
+    <t>NCT03287596</t>
+  </si>
+  <si>
+    <t>NCT04595617</t>
   </si>
   <si>
     <t>NCT04841408</t>
   </si>
   <si>
+    <t>NCT06234813</t>
+  </si>
+  <si>
+    <t>NCT05194618</t>
+  </si>
+  <si>
+    <t>NCT04822272</t>
+  </si>
+  <si>
     <t>NCT04080232</t>
   </si>
   <si>
+    <t>NCT03815578</t>
+  </si>
+  <si>
+    <t>NCT03470285</t>
+  </si>
+  <si>
+    <t>NCT03421184</t>
+  </si>
+  <si>
+    <t>NCT04345003</t>
+  </si>
+  <si>
+    <t>NCT04325230</t>
+  </si>
+  <si>
+    <t>NCT03692975</t>
+  </si>
+  <si>
+    <t>NCT05582070</t>
+  </si>
+  <si>
+    <t>NCT03760406</t>
+  </si>
+  <si>
+    <t>NCT04918303</t>
+  </si>
+  <si>
+    <t>NCT02547883</t>
+  </si>
+  <si>
+    <t>NCT04916678</t>
+  </si>
+  <si>
+    <t>NCT04822584</t>
+  </si>
+  <si>
+    <t>NCT04828928</t>
+  </si>
+  <si>
     <t>NCT04921488</t>
   </si>
   <si>
-    <t>NCT06234813</t>
-  </si>
-  <si>
-    <t>NCT05582070</t>
-  </si>
-  <si>
-    <t>NCT03470285</t>
-  </si>
-  <si>
-    <t>NCT03692975</t>
-  </si>
-  <si>
-    <t>NCT04918303</t>
-  </si>
-  <si>
-    <t>NCT03768648</t>
-  </si>
-  <si>
-    <t>NCT03815578</t>
-  </si>
-  <si>
-    <t>NCT04595617</t>
-  </si>
-  <si>
-    <t>NCT03287596</t>
-  </si>
-  <si>
-    <t>NCT05194618</t>
-  </si>
-  <si>
-    <t>NCT04822272</t>
-  </si>
-  <si>
-    <t>NCT03760406</t>
-  </si>
-  <si>
-    <t>NCT04345003</t>
-  </si>
-  <si>
-    <t>NCT04822584</t>
-  </si>
-  <si>
-    <t>NCT04828928</t>
-  </si>
-  <si>
-    <t>NCT02547883</t>
-  </si>
-  <si>
-    <t>NCT04325230</t>
-  </si>
-  <si>
-    <t>NCT04916678</t>
-  </si>
-  <si>
-    <t>NCT03421184</t>
+    <t>NCT04276480</t>
+  </si>
+  <si>
+    <t>NCT04942574</t>
+  </si>
+  <si>
+    <t>NCT04591314</t>
+  </si>
+  <si>
+    <t>NCT05185323</t>
+  </si>
+  <si>
+    <t>NCT05313256</t>
+  </si>
+  <si>
+    <t>NCT06259448</t>
+  </si>
+  <si>
+    <t>NCT05953298</t>
+  </si>
+  <si>
+    <t>NCT04328376</t>
+  </si>
+  <si>
+    <t>NCT05790824</t>
+  </si>
+  <si>
+    <t>NCT06272344</t>
+  </si>
+  <si>
+    <t>NCT02514278</t>
   </si>
   <si>
     <t>NCT05623449</t>
   </si>
   <si>
-    <t>NCT04328376</t>
-  </si>
-  <si>
-    <t>NCT04942574</t>
-  </si>
-  <si>
     <t>NCT04934527</t>
   </si>
   <si>
-    <t>NCT06259448</t>
-  </si>
-  <si>
-    <t>NCT06272344</t>
-  </si>
-  <si>
-    <t>NCT04591314</t>
-  </si>
-  <si>
-    <t>NCT05313256</t>
-  </si>
-  <si>
-    <t>NCT05185323</t>
+    <t>NCT02469753</t>
   </si>
   <si>
     <t>NCT05225935</t>
   </si>
   <si>
+    <t>NCT04851145</t>
+  </si>
+  <si>
     <t>NCT04081883</t>
   </si>
   <si>
-    <t>NCT02514278</t>
-  </si>
-  <si>
-    <t>NCT04851145</t>
-  </si>
-  <si>
-    <t>NCT05953298</t>
-  </si>
-  <si>
-    <t>NCT02469753</t>
-  </si>
-  <si>
-    <t>NCT04276480</t>
-  </si>
-  <si>
-    <t>NCT05790824</t>
-  </si>
-  <si>
     <t>2010-022255-37</t>
   </si>
   <si>
@@ -931,18 +931,18 @@
     <t>2016-001435-13</t>
   </si>
   <si>
+    <t>2015-000691-94</t>
+  </si>
+  <si>
     <t>2017-000490-36</t>
   </si>
   <si>
-    <t>2015-000691-94</t>
+    <t>2017-001144-36</t>
   </si>
   <si>
     <t>2017-002912-15</t>
   </si>
   <si>
-    <t>2017-001144-36</t>
-  </si>
-  <si>
     <t>2020-001435-27</t>
   </si>
   <si>
@@ -1033,127 +1033,160 @@
     <t>2024</t>
   </si>
   <si>
+    <t>Randomized Placebo-Controlled Trial of a Triple Therapy Combining Peginterferon Alfa-2a Plus Ribavirin Plus Amantadine Versus Peginterferon Alfa-2a Plus Ribavirin Plus Placebo in Hepatitis C-Infected Patients Non Responders to a First-Line Therapy of Interferon and Ribavirin</t>
+  </si>
+  <si>
     <t>Pravastatin in HIV-Infected Patients Treated With Highly Active Antiretroviral Therapy</t>
   </si>
   <si>
-    <t>Randomized Placebo-Controlled Trial of a Triple Therapy Combining Peginterferon Alfa-2a Plus Ribavirin Plus Amantadine Versus Peginterferon Alfa-2a Plus Ribavirin Plus Placebo in Hepatitis C-Infected Patients Non Responders to a First-Line Therapy of Interferon and Ribavirin</t>
-  </si>
-  <si>
     <t>Efficacy and Safety of Peginterferon alfa2a and Ribavirin for the Second Line Treatment of Chronic Hepatitis C in HIV Infected Patients Previously Non Responders to a First Anti-HCV Treatment</t>
   </si>
   <si>
     <t>Are Paraspinous Intramuscular Injections of Botulinum Toxin A (BoNT-A) Efficient in the Treatment of Chronic Low-back Pain?</t>
   </si>
   <si>
+    <t>Study of Ponderal Load in Parkinsonian Patients After Deep Brain Stimulation of the Subthalamic Nucleus</t>
+  </si>
+  <si>
     <t>The Effects of Transcranial Electrical Stimulation (TCES) on Cerebral Blood Flow (CBF) With Xenon Under Computerized Tomography (Xe/CT)</t>
   </si>
   <si>
-    <t>Study of Ponderal Load in Parkinsonian Patients After Deep Brain Stimulation of the Subthalamic Nucleus</t>
-  </si>
-  <si>
     <t>Fentanyl Ultra Low Doses Effects on Human Volunteer's Nociceptive Threshold. Towards a Simple Pharmacological Test Able to Predict Pain Vulnerability, Post Operative Hyperalgesia Development Risk?</t>
   </si>
   <si>
+    <t>Study of the Effects of Nefopam on Hyperalgesia Following Sternotomy in Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Evaluation of Postoperative Pain by Spectral Analysis of ECG R-R Intervals</t>
+  </si>
+  <si>
     <t>Effects of Regular and Consequent Citrus Fruit Consumption on Vascular Protection Specific Role of the Component Phytomicronutrients</t>
   </si>
   <si>
-    <t>Evaluation of Postoperative Pain by Spectral Analysis of ECG R-R Intervals</t>
-  </si>
-  <si>
-    <t>Study of the Effects of Nefopam on Hyperalgesia Following Sternotomy in Cardiac Surgery</t>
+    <t>Subclavian Vein Ultrasound Guided Cannulation in Adult: Transversal and Longitudinal Approach Comparison</t>
+  </si>
+  <si>
+    <t>A Double Blind Randomized, Placebo-controlled, Cross-over Trial to Evaluate the Efficiency of a Mouthrinse, Containing Red Grape Seed Extract and nicométhanol Fluorhydrate, in the Control of Dental Plaque Deposit in a 4-days Plaque Regrowth Model</t>
+  </si>
+  <si>
+    <t>Lowering VT and Increasing PEP During One-Lung Ventilation (OLV), Impact on Oxygenation</t>
+  </si>
+  <si>
+    <t>Efficacy of a Polyamine-free Diet Associated or Not With Ketamine on Early and Late Hyperalgesia After Breast Cancer Surgery</t>
+  </si>
+  <si>
+    <t>Intrapulmonary Percussive Ventilation and Nasal Continuous Positive Airway Pressure Ventilation in Transient Respiratory Distress of the Newborn: A Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Chronic Sleep Restriction and Driving in Healthy Subjects or Snorers : Interindividual Vulnerability and Recovery Factors</t>
+  </si>
+  <si>
+    <t>Pilot Clinical Trial of Injection of ex Vivo Amplified G-CSF Mobilised Autologous Peripheral Blood Stem Cell Transplantation in Adult Patients With Multiple Myeloma in First Response</t>
   </si>
   <si>
     <t>Role of Mitochondria in Human Bronchial Smooth Muscle Remodeling in Non Severe Asthma</t>
   </si>
   <si>
-    <t>A Double Blind Randomized, Placebo-controlled, Cross-over Trial to Evaluate the Efficiency of a Mouthrinse, Containing Red Grape Seed Extract and nicométhanol Fluorhydrate, in the Control of Dental Plaque Deposit in a 4-days Plaque Regrowth Model</t>
-  </si>
-  <si>
-    <t>Pilot Clinical Trial of Injection of ex Vivo Amplified G-CSF Mobilised Autologous Peripheral Blood Stem Cell Transplantation in Adult Patients With Multiple Myeloma in First Response</t>
-  </si>
-  <si>
-    <t>Intrapulmonary Percussive Ventilation and Nasal Continuous Positive Airway Pressure Ventilation in Transient Respiratory Distress of the Newborn: A Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Subclavian Vein Ultrasound Guided Cannulation in Adult: Transversal and Longitudinal Approach Comparison</t>
-  </si>
-  <si>
-    <t>Efficacy of a Polyamine-free Diet Associated or Not With Ketamine on Early and Late Hyperalgesia After Breast Cancer Surgery</t>
-  </si>
-  <si>
-    <t>Chronic Sleep Restriction and Driving in Healthy Subjects or Snorers : Interindividual Vulnerability and Recovery Factors</t>
-  </si>
-  <si>
-    <t>Lowering VT and Increasing PEP During One-Lung Ventilation (OLV), Impact on Oxygenation</t>
+    <t>3D Evaluation of Postural Balance of the Adult Affected by Postural Trouble, Using EOS™ Images and 3D-reconstructions With Regard to Gravity Line.</t>
+  </si>
+  <si>
+    <t>Phase II Randomized Double Blind Clinical Trial of'Imatinib Mesylate STI571 (Glivec®) Versus Placebo in Patients With Severe Cutaneous Scleroderma or Systemic Sclerosis With Severe Cutaneous Involvement.</t>
+  </si>
+  <si>
+    <t>Prospective Comparative Multicenter Study on the Medico-economical Impact of the Brindley Technique in the Management of Neurogenic Bladder in Patients With Injured Spinal Cord</t>
+  </si>
+  <si>
+    <t>Sevoflurane-induced Prevention of Ischemia-reperfusion Lesions in Renal Allograft Transplants Recipients</t>
   </si>
   <si>
     <t>Impact of High-volume Veno-venous Continuous Hemofiltration in the Early Management of Septic Shock Patients With Acute Renal Failure</t>
   </si>
   <si>
+    <t>Randomized, Multicenter Phase III Trial Comparing Adjuvant Treatment With PegIntron Over 36 Months Versus Reference Treatment With IntronA Over 18 Months in Cutaneous Melanoma Patients AJCC Stage II (&gt;=1.5 mm Clinically Node Negative)</t>
+  </si>
+  <si>
+    <t>Economic and Medical Evaluation of Self-monitoring of Anticoagulation in a Population of Patients Recently Fitted With a Mechanical Heart Valve Compared to Conventional Anticoagulation Follow-up</t>
+  </si>
+  <si>
+    <t>Chronic Electrical Stimulation of the Auditory Cortex for Intractable Tinnitus</t>
+  </si>
+  <si>
+    <t>Saliva and Plasma Endocannabinoids Concentrations According to Feeding Status and Body Mass Index</t>
+  </si>
+  <si>
     <t>Assessment of Efficacy and Safety of Continuous Wound Infiltration With Local Anesthesics Through a Parietal Paravertebral Catheter for Postoperative Analgesia After Posterior Lumbar Arthrodesis</t>
   </si>
   <si>
-    <t>3D Evaluation of Postural Balance of the Adult Affected by Postural Trouble, Using EOS™ Images and 3D-reconstructions With Regard to Gravity Line.</t>
-  </si>
-  <si>
-    <t>Randomized, Multicenter Phase III Trial Comparing Adjuvant Treatment With PegIntron Over 36 Months Versus Reference Treatment With IntronA Over 18 Months in Cutaneous Melanoma Patients AJCC Stage II (&gt;=1.5 mm Clinically Node Negative)</t>
-  </si>
-  <si>
-    <t>Phase II Randomized Double Blind Clinical Trial of'Imatinib Mesylate STI571 (Glivec®) Versus Placebo in Patients With Severe Cutaneous Scleroderma or Systemic Sclerosis With Severe Cutaneous Involvement.</t>
-  </si>
-  <si>
-    <t>Prospective Comparative Multicenter Study on the Medico-economical Impact of the Brindley Technique in the Management of Neurogenic Bladder in Patients With Injured Spinal Cord</t>
-  </si>
-  <si>
-    <t>Chronic Electrical Stimulation of the Auditory Cortex for Intractable Tinnitus</t>
-  </si>
-  <si>
-    <t>Economic and Medical Evaluation of Self-monitoring of Anticoagulation in a Population of Patients Recently Fitted With a Mechanical Heart Valve Compared to Conventional Anticoagulation Follow-up</t>
-  </si>
-  <si>
-    <t>Sevoflurane-induced Prevention of Ischemia-reperfusion Lesions in Renal Allograft Transplants Recipients</t>
-  </si>
-  <si>
-    <t>Saliva and Plasma Endocannabinoids Concentrations According to Feeding Status and Body Mass Index</t>
+    <t>Assessment of 18Fluoro-thymidine PET-CT for the Volume Definition of High-grade Gliomas (GLIO-TEP) : Correlation With Histopathology</t>
+  </si>
+  <si>
+    <t>Non Comparative, Monocentric, Prospective, Phase II, Study of Calcium Phosphate Cement MCPC Efficacy and Safety for Bone Filling in Vertebral Site</t>
+  </si>
+  <si>
+    <t>Open Label, Randomized Study of the Impact of Diet on Gut Microbiota, Inflammageing and Oxidative Stress in Elderly People. Potential Benefits of Dietary Advices Alone or Associated to Nutraceutical Food Supplements Argan Oil, VSL#3 Probiotic Blend, 5203-L Fruit Extract Terpene. French Part of a Multicentric European Study</t>
+  </si>
+  <si>
+    <t>Study of the Performance of Ambulatory Nocturnal Polygraphy in the Diagnosis of Sleep Apnea in Multiple System Atrophy</t>
   </si>
   <si>
     <t>Safety and Efficacy of Ibritumomab Tiuxetan (Zevalin®) in Association With a Fludarabine Based Reduced Conditioning Regimen and Allogenic Stem Cell Support in Chemo-sensitive Relapsed CD20 Positive Aggressive Non-Hodgkin's Lymphoma Patients.</t>
   </si>
   <si>
+    <t>Evaluation of the Persistence of the Complete Molecular Remission After Stopping Imatinib Chronic Myeloid Leukemia (STIM)</t>
+  </si>
+  <si>
+    <t>Sequential and Early Used of Noninvasive Ventilation After Extubation in Hypercapnic Patients or in Patients With Chronic Respiratory Disorders</t>
+  </si>
+  <si>
+    <t>Phase II Non Comparative, Open Study to Assess the Efficacy and Safety of the Botulinum Toxin Type A in Patients With Restless Legs Syndrome (RLS)</t>
+  </si>
+  <si>
+    <t>Decision-making and Emotion Recognition in Essential Tremor</t>
+  </si>
+  <si>
+    <t>Aging,Sleep and Cognitive Process</t>
+  </si>
+  <si>
+    <t>Countermeasures for Sleepiness at the Wheel and Prediction of Inter- Individual Differences to Their Responses (KillSleep)</t>
+  </si>
+  <si>
+    <t>Phenotypic Characterization and Array CGH Analysis in Patients With Syndromic Obesity of Unknown Etiology</t>
+  </si>
+  <si>
     <t>Fiberoptic Bronchoscopy With Broncho-alveolar Lavage Under Noninvasive Ventilation With Propofol Target Controled Infusion in Patient With Acute Hypoxemic Respiratory Failure. A Randomized Controlled Study : SEDA-FIBRO.</t>
   </si>
   <si>
-    <t>Decision-making and Emotion Recognition in Essential Tremor</t>
-  </si>
-  <si>
-    <t>Phenotypic Characterization and Array CGH Analysis in Patients With Syndromic Obesity of Unknown Etiology</t>
-  </si>
-  <si>
-    <t>Phase II Non Comparative, Open Study to Assess the Efficacy and Safety of the Botulinum Toxin Type A in Patients With Restless Legs Syndrome (RLS)</t>
-  </si>
-  <si>
-    <t>Assessment of 18Fluoro-thymidine PET-CT for the Volume Definition of High-grade Gliomas (GLIO-TEP) : Correlation With Histopathology</t>
-  </si>
-  <si>
-    <t>Aging,Sleep and Cognitive Process</t>
-  </si>
-  <si>
-    <t>Sequential and Early Used of Noninvasive Ventilation After Extubation in Hypercapnic Patients or in Patients With Chronic Respiratory Disorders</t>
-  </si>
-  <si>
-    <t>Study of the Performance of Ambulatory Nocturnal Polygraphy in the Diagnosis of Sleep Apnea in Multiple System Atrophy</t>
-  </si>
-  <si>
-    <t>Non Comparative, Monocentric, Prospective, Phase II, Study of Calcium Phosphate Cement MCPC Efficacy and Safety for Bone Filling in Vertebral Site</t>
-  </si>
-  <si>
-    <t>Open Label, Randomized Study of the Impact of Diet on Gut Microbiota, Inflammageing and Oxidative Stress in Elderly People. Potential Benefits of Dietary Advices Alone or Associated to Nutraceutical Food Supplements Argan Oil, VSL#3 Probiotic Blend, 5203-L Fruit Extract Terpene. French Part of a Multicentric European Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Persistence of the Complete Molecular Remission After Stopping Imatinib Chronic Myeloid Leukemia (STIM)</t>
-  </si>
-  <si>
-    <t>Countermeasures for Sleepiness at the Wheel and Prediction of Inter- Individual Differences to Their Responses (KillSleep)</t>
+    <t>Physiologic Effects of High Flow Nasal Therapy in Patients With Acute Hypoxemic Respiratory Failure</t>
+  </si>
+  <si>
+    <t>Effectiveness of Botulinum Toxin A Injection for the Treatment of Lateral Epicondylitis Unrelieved by Usual Medical Cares : A Double Blind Randomized Controlled Trial Versus Placebo</t>
+  </si>
+  <si>
+    <t>Phase 2 of Sunitinib (Sutent) in Patients With Locally Advanced or Metastatic Anaplastic, Differentiated or Medullar Thyroid Cancer</t>
+  </si>
+  <si>
+    <t>Early Detection of Diabetic Cardiomyopathy by Analysis of Myocardial Deformations by Two-dimensional Speckle Tracking Strain Echocardiography and Relationship to Micro-angiopathy</t>
+  </si>
+  <si>
+    <t>Nutritional Intervention in Geriatric Oncology in Patients at Risk of Undernutrition</t>
+  </si>
+  <si>
+    <t>Assessment of Four-dimensional (4D) 18F-fluoro-deoxy-glucose (FDG) Positron Emission Tomography and Computed Tomography System (PET-CT) in Radiotherapy for Non Small Cell Lung Cancers (NSCLC)</t>
+  </si>
+  <si>
+    <t>Efficacy Assessment of Three Non Pharmacological Therapies in Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>Effects of Gallopamil on Bronchial Smooth Muscle Remodelling in Severe Asthma: a Double Blind Study.</t>
+  </si>
+  <si>
+    <t>A Double-blind, Two-arm, Multicenter, Randomized Trial to Evaluate Efficacy of Cyclophosphamide Versus Methylprednisolone in Patients With Recent Secondary Progressive Multiple Sclerosis: P.R.OM.E.S.S Study</t>
+  </si>
+  <si>
+    <t>Prevalence of Fabry's Disease in a Population of Patients With Chronic Pains</t>
+  </si>
+  <si>
+    <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies, Impact of Modafinil Treatment.</t>
   </si>
   <si>
     <t>Interest of Oral Tissue Autofluorescence for the Screening of Precancerous Lesions and Cancer in Population With Tobacco and Alcohol Abuse.</t>
@@ -1162,262 +1195,253 @@
     <t>Orbitofrontal Cortex (OFC) Influence on Addictive Behaviour in Medication Overuse Headache (MOH) Deriving From Migraine</t>
   </si>
   <si>
-    <t>Assessment of Four-dimensional (4D) 18F-fluoro-deoxy-glucose (FDG) Positron Emission Tomography and Computed Tomography System (PET-CT) in Radiotherapy for Non Small Cell Lung Cancers (NSCLC)</t>
-  </si>
-  <si>
-    <t>Prevalence of Fabry's Disease in a Population of Patients With Chronic Pains</t>
-  </si>
-  <si>
-    <t>Phase 2 of Sunitinib (Sutent) in Patients With Locally Advanced or Metastatic Anaplastic, Differentiated or Medullar Thyroid Cancer</t>
-  </si>
-  <si>
     <t>Medication Overuse Headaches: the Impact of Educative Telephone Coaching Administered by Nurses Prior to the Medical Appointment in a Tertiary Consultation Center: a Comparative Randomized Trial</t>
   </si>
   <si>
-    <t>Effects of Gallopamil on Bronchial Smooth Muscle Remodelling in Severe Asthma: a Double Blind Study.</t>
-  </si>
-  <si>
-    <t>Physiologic Effects of High Flow Nasal Therapy in Patients With Acute Hypoxemic Respiratory Failure</t>
-  </si>
-  <si>
-    <t>Efficacy Assessment of Three Non Pharmacological Therapies in Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>Effectiveness of Botulinum Toxin A Injection for the Treatment of Lateral Epicondylitis Unrelieved by Usual Medical Cares : A Double Blind Randomized Controlled Trial Versus Placebo</t>
-  </si>
-  <si>
-    <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies, Impact of Modafinil Treatment.</t>
-  </si>
-  <si>
-    <t>Nutritional Intervention in Geriatric Oncology in Patients at Risk of Undernutrition</t>
-  </si>
-  <si>
-    <t>Early Detection of Diabetic Cardiomyopathy by Analysis of Myocardial Deformations by Two-dimensional Speckle Tracking Strain Echocardiography and Relationship to Micro-angiopathy</t>
-  </si>
-  <si>
-    <t>A Double-blind, Two-arm, Multicenter, Randomized Trial to Evaluate Efficacy of Cyclophosphamide Versus Methylprednisolone in Patients With Recent Secondary Progressive Multiple Sclerosis: P.R.OM.E.S.S Study</t>
+    <t>Effect of N-3 Polyunsaturated Fatty Acids Supplementation on the Human Milk Composition of Lactating Women: Nutritional Intervention With Rapeseed Oil and n-3 Margarine Compared to Standard Olive Oil</t>
+  </si>
+  <si>
+    <t>LMA ProSeal &amp; I-Gel : a Prospective Controlled Trial</t>
+  </si>
+  <si>
+    <t>Measurement of Glomerular Filtration Rate With Contrast-enhanced Dynamic MR Imaging in Renal Transplant Recipients: Evaluation of the Agreement With the Cr51 -EDTA Method and of Reproducibility</t>
+  </si>
+  <si>
+    <t>Methodological Evaluation of Fluor 18 Labelled Fluoromisonidazole ([18F]-FMISO) Positon Emission Tomography-Computed Tomography (PET-CT) for Non Operated Glioblastoma</t>
+  </si>
+  <si>
+    <t>In Vivo SPECT Imaging of Vesicular Acetylcholine and Dopamine Transporters in Dementia With Lewy Bodies: Applying in Diagnostic and Identification of Pathological Subtypes.</t>
+  </si>
+  <si>
+    <t>Corneal Biomechanics and Continuous IOP Monitoring Using Soft Contact Lenses in Glaucomatous Patients</t>
+  </si>
+  <si>
+    <t>Lutein Influence on Macula of Persons Issued From Amd Parents</t>
+  </si>
+  <si>
+    <t>Obtaining Vascular Access (Venous or Intraosseous) During Cardiac Arrest in Out-of-hospital Care: Delays and Failure Risk Factors</t>
   </si>
   <si>
     <t>A Prospective Study of Coronary Artery Bypass Graft and/or Aortic Valve Replacement With Conventional Versus Half Heparin Dose Under Closed and Coated Extra Corporeal Circulation System (MECC) - APPACHES Study.</t>
   </si>
   <si>
-    <t>Effect of N-3 Polyunsaturated Fatty Acids Supplementation on the Human Milk Composition of Lactating Women: Nutritional Intervention With Rapeseed Oil and n-3 Margarine Compared to Standard Olive Oil</t>
+    <t>Ultrasound-guided Transversus Abdominis Plane Block for Analgesia After Abdominoplasty: Randomized- Controlled- Trial Double Blind Monocentric Study, Against Placebo</t>
+  </si>
+  <si>
+    <t>Randomized Prospective Study of Adding Lomustine to Idarubicin and Cytarabine for Induction and Post-remission Chemotherapy in Older Patients With Acute Myeloid Leukaemia, and Feasibility of Allogeneic Transplantation for Patients From 60 to 65 Years Old</t>
+  </si>
+  <si>
+    <t>In Vivo Study of Interactions Between the Endocannabinoid System and the Corticotropic Axis in Man</t>
+  </si>
+  <si>
+    <t>Acoustic Radiation Force Impulse Imaging (ARFI) : a New Technique to Assess Liver Elasticity - Norms in ARFI: Distribution and Reproducibility of ARFI Values in Disease-free Livers or Pathological Livers.</t>
+  </si>
+  <si>
+    <t>A Randomised, Double Blinded Cross-over Study Comparing the Efficacy of L-carnitine Versus Placebo in the Treatment of Fatigue in Multiple Sclerosis</t>
   </si>
   <si>
     <t>Comparison of 2 Surgical Approaches in the Treatment of Degenerative Spondylolysthesis: Posterolateral Fusion With Instrumentation (GPLI) Plus or Minus Transforaminal Lumbar Interbody Fusion (TLIF)</t>
   </si>
   <si>
-    <t>In Vivo Study of Interactions Between the Endocannabinoid System and the Corticotropic Axis in Man</t>
-  </si>
-  <si>
-    <t>LMA ProSeal &amp; I-Gel : a Prospective Controlled Trial</t>
-  </si>
-  <si>
-    <t>Lutein Influence on Macula of Persons Issued From Amd Parents</t>
+    <t>Study of Tolerance and Effectiveness of Ureteral Stents MEMOKATH ® 051 in the Treatment of Chronic Strictures of the Ureter</t>
   </si>
   <si>
     <t>Sleepiness and Performances Degradation in Adults Presenting an Attention-Deficit/ Hyperactivity Disorder (ADHD)</t>
   </si>
   <si>
-    <t>In Vivo SPECT Imaging of Vesicular Acetylcholine and Dopamine Transporters in Dementia With Lewy Bodies: Applying in Diagnostic and Identification of Pathological Subtypes.</t>
-  </si>
-  <si>
-    <t>Study of Tolerance and Effectiveness of Ureteral Stents MEMOKATH ® 051 in the Treatment of Chronic Strictures of the Ureter</t>
-  </si>
-  <si>
-    <t>Corneal Biomechanics and Continuous IOP Monitoring Using Soft Contact Lenses in Glaucomatous Patients</t>
-  </si>
-  <si>
-    <t>Methodological Evaluation of Fluor 18 Labelled Fluoromisonidazole ([18F]-FMISO) Positon Emission Tomography-Computed Tomography (PET-CT) for Non Operated Glioblastoma</t>
-  </si>
-  <si>
-    <t>Obtaining Vascular Access (Venous or Intraosseous) During Cardiac Arrest in Out-of-hospital Care: Delays and Failure Risk Factors</t>
-  </si>
-  <si>
-    <t>Acoustic Radiation Force Impulse Imaging (ARFI) : a New Technique to Assess Liver Elasticity - Norms in ARFI: Distribution and Reproducibility of ARFI Values in Disease-free Livers or Pathological Livers.</t>
-  </si>
-  <si>
-    <t>A Randomised, Double Blinded Cross-over Study Comparing the Efficacy of L-carnitine Versus Placebo in the Treatment of Fatigue in Multiple Sclerosis</t>
-  </si>
-  <si>
-    <t>Randomized Prospective Study of Adding Lomustine to Idarubicin and Cytarabine for Induction and Post-remission Chemotherapy in Older Patients With Acute Myeloid Leukaemia, and Feasibility of Allogeneic Transplantation for Patients From 60 to 65 Years Old</t>
-  </si>
-  <si>
-    <t>Measurement of Glomerular Filtration Rate With Contrast-enhanced Dynamic MR Imaging in Renal Transplant Recipients: Evaluation of the Agreement With the Cr51 -EDTA Method and of Reproducibility</t>
-  </si>
-  <si>
-    <t>Ultrasound-guided Transversus Abdominis Plane Block for Analgesia After Abdominoplasty: Randomized- Controlled- Trial Double Blind Monocentric Study, Against Placebo</t>
+    <t>Safety of a Maintenance Therapy With Lenalidomide After Reduced-intensity Allogeneic Stem Cell Transplantation for Chemosensitive Relapsed Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>Multicentric Pilot, Clinical Study of a Bone Substitute Safety and Efficacy in the Multi Traumatized Nasal Septum Reconstruction</t>
+  </si>
+  <si>
+    <t>Study of Modification of the Density of the Macular Pigment by the Consumption of Corn With Strong Content in Zeaxanthine</t>
+  </si>
+  <si>
+    <t>Effectiveness of Virtual Reality-based Cognitive Training in Daily Living in Stroke Patients Using Virtual Action Planning Supermarket (VAP-S)</t>
+  </si>
+  <si>
+    <t>Total Hip Prosthesis Assisted by Computer Based on Pre-operative EOS Imaging</t>
   </si>
   <si>
     <t>Rubinstein-Taybi Syndrome: Functional Imaging and Therapeutic Trial</t>
   </si>
   <si>
-    <t>Multicentric Pilot, Clinical Study of a Bone Substitute Safety and Efficacy in the Multi Traumatized Nasal Septum Reconstruction</t>
+    <t>Transplantation of Ex-vivo Expanded Human Cord Blood Hematopoietic Stem Cells Expanded: Evaluation of Hematopoietic and Immunologic Reconstitution After a Reduced-intensity Conditioning Regimen</t>
+  </si>
+  <si>
+    <t>Diagnostic of Transient Lower Esophageal Sphincter Relaxation With Combined Impedance and High Resolution Manometry in Patients With GERD.</t>
+  </si>
+  <si>
+    <t>Retinal Neurodegenerative Signs in Alzheimer's Diseases</t>
+  </si>
+  <si>
+    <t>Study of the Role of Intraventricular Electrical Activation in the Treatment of Congestive Heart Failure by Cardiac Resynchronization Therapy: Invasive Evaluation and Validation of Non-Invasive Strategy Using CardioInsight ®</t>
+  </si>
+  <si>
+    <t>Advantage of Using Intraoperative Visual Evoked Potentials to Preserve Visual Function During Surgical Procedures Near the Optical Pathways</t>
+  </si>
+  <si>
+    <t>Population Pharmacokinetics Of Ceftazidime, Ciprofloxacin And Voriconazole In Paediatric Young Patients (&lt; 12 Years Old)</t>
   </si>
   <si>
     <t>Identification of a New Gene Involved in Hereditary Lipodystrophy - LIPOGENE</t>
   </si>
   <si>
-    <t>Transplantation of Ex-vivo Expanded Human Cord Blood Hematopoietic Stem Cells Expanded: Evaluation of Hematopoietic and Immunologic Reconstitution After a Reduced-intensity Conditioning Regimen</t>
-  </si>
-  <si>
-    <t>Diagnostic of Transient Lower Esophageal Sphincter Relaxation With Combined Impedance and High Resolution Manometry in Patients With GERD.</t>
-  </si>
-  <si>
     <t>Prognostic Evaluation of Fluor 18 Labelled FLUROMISONIDAZOLE (18F-FMISO) Positon Emission Tomography-Computed Tomography (PET-CT) in Head and Neck Squamous Cell Carcinomas</t>
   </si>
   <si>
-    <t>Effectiveness of Virtual Reality-based Cognitive Training in Daily Living in Stroke Patients Using Virtual Action Planning Supermarket (VAP-S)</t>
-  </si>
-  <si>
-    <t>Study of the Role of Intraventricular Electrical Activation in the Treatment of Congestive Heart Failure by Cardiac Resynchronization Therapy: Invasive Evaluation and Validation of Non-Invasive Strategy Using CardioInsight ®</t>
-  </si>
-  <si>
-    <t>Population Pharmacokinetics Of Ceftazidime, Ciprofloxacin And Voriconazole In Paediatric Young Patients (&lt; 12 Years Old)</t>
-  </si>
-  <si>
-    <t>Advantage of Using Intraoperative Visual Evoked Potentials to Preserve Visual Function During Surgical Procedures Near the Optical Pathways</t>
-  </si>
-  <si>
-    <t>Study of Modification of the Density of the Macular Pigment by the Consumption of Corn With Strong Content in Zeaxanthine</t>
-  </si>
-  <si>
-    <t>Retinal Neurodegenerative Signs in Alzheimer's Diseases</t>
-  </si>
-  <si>
-    <t>Safety of a Maintenance Therapy With Lenalidomide After Reduced-intensity Allogeneic Stem Cell Transplantation for Chemosensitive Relapsed Multiple Myeloma</t>
-  </si>
-  <si>
-    <t>Total Hip Prosthesis Assisted by Computer Based on Pre-operative EOS Imaging</t>
+    <t>Assessment of Early Changes in SD-OCT After Initiation of a Treatment by Intravitreal Aflibercept (EYLEA®) (2mg) Over a 12-week Period for Patients Suffering From Neovascular Age-related Macular Degeneration (AMD) French SD OCT in wAMD</t>
+  </si>
+  <si>
+    <t>Randomized Trial Comparing Drainage Versus no Drainage Following Rectal Excision With Low Anastomosis for Rectal Cancer</t>
+  </si>
+  <si>
+    <t>A Multicentre Prospective Phase II Single Arm Trial Evaluating the Benefit of Therapy With Lenalidomide (Revlimid®) in Relapsed or Refractory Primary-cutaneous Large B-cell Lymphoma (Leg-type) After First Line Treatment by Chemotherapy Plus Rituximab for the French Study Group of Cutaneous Lymphoma (GFELC)</t>
+  </si>
+  <si>
+    <t>Benefit of Pharyngeal and Oesophageal pH-impedance of Patients With High Suspicion of Laryngopharyngeal Reflux</t>
+  </si>
+  <si>
+    <t>Physiologic Effects of Noninvasive Neurally Adjusted Ventilatory Assist (NAVA) Versus Noninvasive Pressure Support Ventilation in Patients at Risk for Respiratory Distress Needed Preventive Used of Noninvasive Ventilation After Extubation.</t>
+  </si>
+  <si>
+    <t>Multicentric Randomized Trial of the Impact of Hemodialysis With Polymethylmetacrylate Membrane on the Improvement of Humoral Immune Response in the Hemodialyzed Patients: Application to Hepatitis B Vaccination and Correlation to sCD40 Clearing</t>
+  </si>
+  <si>
+    <t>Phase I Study of the Combination of Axitinib (AX) Plus Everolimus (EV) in Patients With Malignant Advanced Solid Tumors</t>
+  </si>
+  <si>
+    <t>Risk Factors for Early Remodelling in Severe Asthma in Children</t>
+  </si>
+  <si>
+    <t>Randomized Comparison of Endocardial Versus Epicardial - From the Coronary Sinus - Left Ventricular Pacing for Resynchronization in Heart Failure.</t>
+  </si>
+  <si>
+    <t>Influence of Local Biopsy of the Endometrium Prior to Controlled Ovarian Stimulation for IVF or ICSI Procedure on the Rates of Embryo Implantation, Clinical Pregnancy and Live Birth in ART</t>
+  </si>
+  <si>
+    <t>Efficacy of Sacral Nerve Modulation in Severe Refractory Constipation</t>
+  </si>
+  <si>
+    <t>Study of the Effectiveness and the Tolerance of Intraprostatic A-botulinic Toxin Injection, in the Treatment of Symptomatic Benign Prostate Hypertrophy.</t>
+  </si>
+  <si>
+    <t>Multicentric, Prospective Study of Efficacy and Safety of Lumbar Interbody Fusion With MatriTMBONE Associated With Autologous Marrow</t>
+  </si>
+  <si>
+    <t>STUDY OF IMAGING MARKERS IN THE VERY EARLY STAGES OF DEMENTIA AMONG RETIRED RURAL FARM IN THE GIRONDE AND PARTICIPATING IN THE AMI COHORT EPIDEMIOLOGY: A LONGITUDINAL STUDY.</t>
+  </si>
+  <si>
+    <t>Early Detection of Anthracycline Cardiotoxicity by Echocardiographic Analysis of Myocardial Deformation in 2D Strain</t>
   </si>
   <si>
     <t>Pathophysiology Analysis of "Costello Syndrome" on Cellular Models</t>
   </si>
   <si>
-    <t>Efficacy of Sacral Nerve Modulation in Severe Refractory Constipation</t>
-  </si>
-  <si>
-    <t>Multicentric Randomized Trial of the Impact of Hemodialysis With Polymethylmetacrylate Membrane on the Improvement of Humoral Immune Response in the Hemodialyzed Patients: Application to Hepatitis B Vaccination and Correlation to sCD40 Clearing</t>
+    <t>Cryoablation of Venous Vascular Malformations Located in Soft Tissues</t>
   </si>
   <si>
     <t>Study of Dehydroepiandrosterone (DHEA) in Respiratory Pulmonary Hypertension in Adults. Phase 2 Trial</t>
   </si>
   <si>
-    <t>Risk Factors for Early Remodelling in Severe Asthma in Children</t>
-  </si>
-  <si>
-    <t>Influence of Local Biopsy of the Endometrium Prior to Controlled Ovarian Stimulation for IVF or ICSI Procedure on the Rates of Embryo Implantation, Clinical Pregnancy and Live Birth in ART</t>
-  </si>
-  <si>
-    <t>Study of the Effectiveness and the Tolerance of Intraprostatic A-botulinic Toxin Injection, in the Treatment of Symptomatic Benign Prostate Hypertrophy.</t>
-  </si>
-  <si>
-    <t>Multicentric, Prospective Study of Efficacy and Safety of Lumbar Interbody Fusion With MatriTMBONE Associated With Autologous Marrow</t>
-  </si>
-  <si>
-    <t>Phase I Study of the Combination of Axitinib (AX) Plus Everolimus (EV) in Patients With Malignant Advanced Solid Tumors</t>
-  </si>
-  <si>
-    <t>Early Detection of Anthracycline Cardiotoxicity by Echocardiographic Analysis of Myocardial Deformation in 2D Strain</t>
-  </si>
-  <si>
-    <t>A Multicentre Prospective Phase II Single Arm Trial Evaluating the Benefit of Therapy With Lenalidomide (Revlimid®) in Relapsed or Refractory Primary-cutaneous Large B-cell Lymphoma (Leg-type) After First Line Treatment by Chemotherapy Plus Rituximab for the French Study Group of Cutaneous Lymphoma (GFELC)</t>
-  </si>
-  <si>
-    <t>Randomized Comparison of Endocardial Versus Epicardial - From the Coronary Sinus - Left Ventricular Pacing for Resynchronization in Heart Failure.</t>
-  </si>
-  <si>
-    <t>Assessment of Early Changes in SD-OCT After Initiation of a Treatment by Intravitreal Aflibercept (EYLEA®) (2mg) Over a 12-week Period for Patients Suffering From Neovascular Age-related Macular Degeneration (AMD) French SD OCT in wAMD</t>
-  </si>
-  <si>
-    <t>Physiologic Effects of Noninvasive Neurally Adjusted Ventilatory Assist (NAVA) Versus Noninvasive Pressure Support Ventilation in Patients at Risk for Respiratory Distress Needed Preventive Used of Noninvasive Ventilation After Extubation.</t>
-  </si>
-  <si>
-    <t>Cryoablation of Venous Vascular Malformations Located in Soft Tissues</t>
-  </si>
-  <si>
-    <t>Randomized Trial Comparing Drainage Versus no Drainage Following Rectal Excision With Low Anastomosis for Rectal Cancer</t>
-  </si>
-  <si>
-    <t>STUDY OF IMAGING MARKERS IN THE VERY EARLY STAGES OF DEMENTIA AMONG RETIRED RURAL FARM IN THE GIRONDE AND PARTICIPATING IN THE AMI COHORT EPIDEMIOLOGY: A LONGITUDINAL STUDY.</t>
-  </si>
-  <si>
-    <t>Benefit of Pharyngeal and Oesophageal pH-impedance of Patients With High Suspicion of Laryngopharyngeal Reflux</t>
+    <t>Identification and Prevention of Sudden Cardiac Death Causes in Hemodialysis Patients</t>
+  </si>
+  <si>
+    <t>Impact Médico-Economique de la Chirurgie de la cATaracte au Laser Femtoseconde</t>
+  </si>
+  <si>
+    <t>Assessment of Emphysema in COPD Patients Using 1.5T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences</t>
+  </si>
+  <si>
+    <t>Sub-thalamic Nucleus Stimulation in Parkinson Disease: Comparison of a Two-steps Electrophysiological Approach Under Local and General Anesthesia and a One-step Approach Under General Anesthesia</t>
+  </si>
+  <si>
+    <t>Vasculopathy, Inflammation and Systemic Sclerosis: The Role of Endothelial Cell Activation and OX40/OX40L in Modulation of T Lymphocyte Activation</t>
+  </si>
+  <si>
+    <t>Preliminary Study for Selective Detection of the CD8+ Myelin Specific T Cell in the Blood of Multiple Sclerosis Patients (MS).</t>
+  </si>
+  <si>
+    <t>Comparison of Two Strategies of Oropharyngeal and Tracheal Suctioning in Mechanically Ventilated Patients: a Pilot Trial</t>
+  </si>
+  <si>
+    <t>Randomised Controlled Clinical Trial of Cognitive Rehabilitation in Multiple Sclerosis and Assessment by Neuroimaging</t>
+  </si>
+  <si>
+    <t>Stress and Insomnia: Investigating a Bidirectional Relation</t>
+  </si>
+  <si>
+    <t>Interest of Ascorbic Acid in the Management of Pneumonia in Elderly People Hospitalized.</t>
+  </si>
+  <si>
+    <t>Contribution of Mechanical Insufflation-Exsufflation in Preventing Respiratory Failure Post Extubation in Patient With Critical Care Neuromyopathy</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics of Ertapenem Following Subcutaneous or Intravenous Infusion in Patients Aged Over 75 (PHACINERTA)</t>
+  </si>
+  <si>
+    <t>Early Phase of Multi-disciplinary Prevention Program of Shoulder Pain Post-stroke</t>
+  </si>
+  <si>
+    <t>Recherche de Marqueurs Pronostiques électro-physiologiques précoces Chez l'Aphasique après un Accident Vasculaire cérébral.APHA-TMS</t>
+  </si>
+  <si>
+    <t>Prospective Longitudinal 1-year Study of the Correlation Between Cognitive Functioning in Patients With Clinically Isolated Syndrome Suggestive of Multiple Sclerosis and Disconnection in the Brain Assessed by MRI:"SCI-COG" Study</t>
   </si>
   <si>
     <t>Multicenter Clinical Trial Evaluating the Immunological Response of Vaccination Against Infection by Human Papillomavirus (HPV) 6, 11, 16, 18 in Girls Receiving Immunosuppressive Therapy.</t>
   </si>
   <si>
-    <t>Sub-thalamic Nucleus Stimulation in Parkinson Disease: Comparison of a Two-steps Electrophysiological Approach Under Local and General Anesthesia and a One-step Approach Under General Anesthesia</t>
-  </si>
-  <si>
-    <t>Interest of Ascorbic Acid in the Management of Pneumonia in Elderly People Hospitalized.</t>
-  </si>
-  <si>
-    <t>Assessment of Emphysema in COPD Patients Using 1.5T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics of Ertapenem Following Subcutaneous or Intravenous Infusion in Patients Aged Over 75 (PHACINERTA)</t>
-  </si>
-  <si>
-    <t>Randomised Controlled Clinical Trial of Cognitive Rehabilitation in Multiple Sclerosis and Assessment by Neuroimaging</t>
-  </si>
-  <si>
-    <t>Identification and Prevention of Sudden Cardiac Death Causes in Hemodialysis Patients</t>
-  </si>
-  <si>
-    <t>Impact Médico-Economique de la Chirurgie de la cATaracte au Laser Femtoseconde</t>
-  </si>
-  <si>
-    <t>Comparison of Two Strategies of Oropharyngeal and Tracheal Suctioning in Mechanically Ventilated Patients: a Pilot Trial</t>
-  </si>
-  <si>
-    <t>Preliminary Study for Selective Detection of the CD8+ Myelin Specific T Cell in the Blood of Multiple Sclerosis Patients (MS).</t>
-  </si>
-  <si>
-    <t>Recherche de Marqueurs Pronostiques électro-physiologiques précoces Chez l'Aphasique après un Accident Vasculaire cérébral.APHA-TMS</t>
-  </si>
-  <si>
-    <t>Vasculopathy, Inflammation and Systemic Sclerosis: The Role of Endothelial Cell Activation and OX40/OX40L in Modulation of T Lymphocyte Activation</t>
-  </si>
-  <si>
-    <t>Early Phase of Multi-disciplinary Prevention Program of Shoulder Pain Post-stroke</t>
-  </si>
-  <si>
-    <t>Prospective Longitudinal 1-year Study of the Correlation Between Cognitive Functioning in Patients With Clinically Isolated Syndrome Suggestive of Multiple Sclerosis and Disconnection in the Brain Assessed by MRI:"SCI-COG" Study</t>
-  </si>
-  <si>
-    <t>Contribution of Mechanical Insufflation-Exsufflation in Preventing Respiratory Failure Post Extubation in Patient With Critical Care Neuromyopathy</t>
-  </si>
-  <si>
-    <t>Stress and Insomnia: Investigating a Bidirectional Relation</t>
-  </si>
-  <si>
     <t>Evaluation of Depolarization and Repolarisation Activity During Cardiac Arrhythmia Using a Novel Monophasic Action Potential Catheter</t>
   </si>
   <si>
+    <t>Relation Between Pregnenolone Endocannabinoids in Normal-weight and Obese Men</t>
+  </si>
+  <si>
+    <t>Safety and Efficacy of a Strategy of Allogeneic Hematopoietic Stem Cell Transplantation After Reduced-intensity Conditioning for Chemosensitive Relapsed Follicular Lymphoma</t>
+  </si>
+  <si>
     <t>Treatment of Renal Angiomyolipomas in Tuberous Sclerosis by Beta-blockers: Pilot Trial</t>
   </si>
   <si>
+    <t>Pilot Study Related to the Effect of Clopidogrel on Plasmatic Soluble CD40 Ligand During Systemic Lupus Erythematous</t>
+  </si>
+  <si>
+    <t>Cohort Study on the Age-related Macular Degeneration: Incidence and Research for Predisposing Factors</t>
+  </si>
+  <si>
+    <t>Effect of Intra-venous Oxytocin Injection After Fetal Expulsion in Management of Third-stage of Labor After Second Trimester Medical Pregnancy Termination</t>
+  </si>
+  <si>
+    <t>Feasibility and Interest of Early Eye-Movement Desensitization and Reprocessing Provided in the Emergency Department for Patients With High Risk of Post Traumatic Syndrome</t>
+  </si>
+  <si>
     <t>The Sleepless Brain: Neuroimaging Support for a Differential Diagnosis of Insomnia</t>
   </si>
   <si>
-    <t>Effect of Intra-venous Oxytocin Injection After Fetal Expulsion in Management of Third-stage of Labor After Second Trimester Medical Pregnancy Termination</t>
-  </si>
-  <si>
-    <t>Cohort Study on the Age-related Macular Degeneration: Incidence and Research for Predisposing Factors</t>
+    <t>Musitox® Project: Consumption of Psychoactive Substances at Music Festivals in Aquitaine</t>
+  </si>
+  <si>
+    <t>Oral and Dental Health Status in Patients Suffering From Chronic Kidney Disease</t>
+  </si>
+  <si>
+    <t>Multicenter Trial Estimating the Persistence of Molecular Remission in Chronic Myeloid Leukaemia in Long Term After Stopping Imatinib</t>
+  </si>
+  <si>
+    <t>Phase II Randomized Trial Evaluating the Administration of Sorafenib or Pravastatin or Association Sorafenib-pravastatin or Best Supportive Care for the Palliative Treatment of Hepatocellular Carcinoma in Patient With CHILD B Cirrhosis</t>
+  </si>
+  <si>
+    <t>Assessment of Lung Involvement in Cystic Fibrosis Patients Using 1.5T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences</t>
   </si>
   <si>
     <t>Randomized Clinical Trial of Plasma Exchanges Versus Sham Plasma Exchanges in Disabling Multiple Sclerosis Acute Relapses Refractory to Steroid Treatment</t>
   </si>
   <si>
-    <t>Safety and Efficacy of a Strategy of Allogeneic Hematopoietic Stem Cell Transplantation After Reduced-intensity Conditioning for Chemosensitive Relapsed Follicular Lymphoma</t>
-  </si>
-  <si>
-    <t>Phase II Randomized Trial Evaluating the Administration of Sorafenib or Pravastatin or Association Sorafenib-pravastatin or Best Supportive Care for the Palliative Treatment of Hepatocellular Carcinoma in Patient With CHILD B Cirrhosis</t>
-  </si>
-  <si>
-    <t>Oral and Dental Health Status in Patients Suffering From Chronic Kidney Disease</t>
+    <t>A Prospective, Randomized and Controlled Study Estimating the Neurally Adjusted Ventilatory Assist (NAVA) Versus the Pressure Support Ventilatory (PSV) in Difficult Weaning From Mechanical Ventilation</t>
+  </si>
+  <si>
+    <t>Volumetric MR-HIFU Ablation of Uterine Fibroids: Factors Influencing Intraprocedural Thermal Parameters</t>
   </si>
   <si>
     <t>Study of Social Cognition by Morphological and Functional Imaging in Multiple Sclerosis Patients</t>
@@ -1426,37 +1450,7 @@
     <t>Role of Circadian and Homeostatic Systems in the Regulation of Wakefulness in Adult Patients With Attention Deficit Disorder With or Without Hyperactivity</t>
   </si>
   <si>
-    <t>Feasibility and Interest of Early Eye-Movement Desensitization and Reprocessing Provided in the Emergency Department for Patients With High Risk of Post Traumatic Syndrome</t>
-  </si>
-  <si>
-    <t>Musitox® Project: Consumption of Psychoactive Substances at Music Festivals in Aquitaine</t>
-  </si>
-  <si>
-    <t>Relation Between Pregnenolone Endocannabinoids in Normal-weight and Obese Men</t>
-  </si>
-  <si>
-    <t>Pilot Study Related to the Effect of Clopidogrel on Plasmatic Soluble CD40 Ligand During Systemic Lupus Erythematous</t>
-  </si>
-  <si>
-    <t>Volumetric MR-HIFU Ablation of Uterine Fibroids: Factors Influencing Intraprocedural Thermal Parameters</t>
-  </si>
-  <si>
-    <t>Multicenter Trial Estimating the Persistence of Molecular Remission in Chronic Myeloid Leukaemia in Long Term After Stopping Imatinib</t>
-  </si>
-  <si>
-    <t>A Prospective, Randomized and Controlled Study Estimating the Neurally Adjusted Ventilatory Assist (NAVA) Versus the Pressure Support Ventilatory (PSV) in Difficult Weaning From Mechanical Ventilation</t>
-  </si>
-  <si>
-    <t>Assessment of Lung Involvement in Cystic Fibrosis Patients Using 1.5T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences</t>
-  </si>
-  <si>
-    <t>Linking fMRI to Mobile Technologies in Addiction Research: Pathophysiology of Executive Deficits, Craving and Substance Use</t>
-  </si>
-  <si>
-    <t>Micro-embolic Signals Detection With Transcranial HOLter in Acute Ischemic STroke: Yield in the Etiologic woR-kup</t>
-  </si>
-  <si>
-    <t>Exploratory Study of the Interest of MRI Susceptibility Weighted Imaging for the Pre-operative Assessment of Pelvic Endometriosis Extent</t>
+    <t>SD-OCT Multimodal Analysis in GLaucoma</t>
   </si>
   <si>
     <t>Assessment of Diagnostic Accuracy of 18FDG-PET-CT in Patients With Suspicion of Pacing or Defibrillation Lead Infection: a Prospective Multi-center Study</t>
@@ -1465,220 +1459,241 @@
     <t>Efficacy of Oral Prednisolone Versus Partial Endodontic Treatment on Pain Reduction in Emergency Care of Acute Irreversible Pulpitis of Mandibular Molars: Non Inferiority Randomized Clinical Trial</t>
   </si>
   <si>
-    <t>" Anemil Trial ": Phase I/II Clinical Trial Evaluating the Interest of Interleukine-2 for Patients With Active Warm Hemolytic Anemia Resistant to Conventional Treatment</t>
-  </si>
-  <si>
-    <t>SD-OCT Multimodal Analysis in GLaucoma</t>
-  </si>
-  <si>
-    <t>Phase III Randomized Trial of Local Excision Versus Total Mesorectal Excision in Downstaged T2T3 Low Rectal Cancer After Radiochemotherapy</t>
-  </si>
-  <si>
-    <t>A Multicenter, Two Arms, Randomized, Open Label Clinical Phase IV Study Investigating the Proportion of CMV Seropositive Kidney Transplant Recipients Who Will Develop a CMV Infection Within the First 6 Months Post-transplantation When Treated With an Immunosuppressive Regimen Including Everolimus (Certican®) and Reduced Dose of Cyclosporine A (Neoral®) Versus an Immunosuppressive Regimen With Mycophenolic Acid (Myfortic®) and Standard Dose of Cyclosporine A (Neoral®).</t>
-  </si>
-  <si>
     <t>Randomized Controlled Study of Low-FODMAP Diet in Patients With GERD Refractory to Protons Pump Inhibitors</t>
   </si>
   <si>
-    <t>Efficacy of Tacrolimus Ointment 0.1% Versus Placebo in Adults With Facial Non-segmental Vitiligo: a Randomized Double-blind Controlled Study</t>
-  </si>
-  <si>
-    <t>Validation of Brief Computerized Cognitive Assessment in Multiple Sclerosis (BCCAMS) - BICAFMS Study (Brief Cognitive Assessment in French MS Patients)</t>
-  </si>
-  <si>
     <t>Home Telemonitoring of Resting Spontaneous Breathing in Severe Asthma: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Pathological and Non-pathological Aging, Physical Activity, Genotype and Cognition (VIAGECO)</t>
+  </si>
+  <si>
+    <t>Multicentre Double-blind Randomized Clinical Trial Assessing Efficacy and Safety of Exenatide in the Treatment of Hypothalamic Obesity After Craniopharyngioma Therapy</t>
+  </si>
+  <si>
+    <t>Effects of Capnometry Monitoring in Post Anesthesia Care Unit</t>
   </si>
   <si>
     <t>Safety profile evaluation of TICagrelor Alone compared to a combination of lysine acetylsalicylate - Clopidogrel in the context of Transcatheter Aortic Valve Implantation (TAVI) 
  Evaluation du profil de sécurité du TICagrelor utilisé seul en comparaison avec une association acétylsalicylate de lysine-clopidogrel dans le contexte de l’implantation de valve aortique percutanée  (TAVI)</t>
   </si>
   <si>
-    <t>Pathological and Non-pathological Aging, Physical Activity, Genotype and Cognition (VIAGECO)</t>
-  </si>
-  <si>
-    <t>Effects of Capnometry Monitoring in Post Anesthesia Care Unit</t>
-  </si>
-  <si>
-    <t>Multicentre Double-blind Randomized Clinical Trial Assessing Efficacy and Safety of Exenatide in the Treatment of Hypothalamic Obesity After Craniopharyngioma Therapy</t>
-  </si>
-  <si>
     <t>Effectiveness of oral prednisolone versus partial endodontic treatment on pain reduction in emergency care of acute irreversible pulpitis of mandibular molars: study protocol for a non inferiority randomized clinical trial. 
  Essai randomisé de non infériorité sur l’efficacité de la prednisolone par voie orale par rapport au traitement endodontique partielle sur la réduction de la douleur dans les soins d'urgence de pulpite irréversible aiguë de molaires mandibulaires.</t>
   </si>
   <si>
+    <t>" Anemil Trial ": Phase I/II Clinical Trial Evaluating the Interest of Interleukine-2 for Patients With Active Warm Hemolytic Anemia Resistant to Conventional Treatment</t>
+  </si>
+  <si>
+    <t>A Multicenter, Two Arms, Randomized, Open Label Clinical Phase IV Study Investigating the Proportion of CMV Seropositive Kidney Transplant Recipients Who Will Develop a CMV Infection Within the First 6 Months Post-transplantation When Treated With an Immunosuppressive Regimen Including Everolimus (Certican®) and Reduced Dose of Cyclosporine A (Neoral®) Versus an Immunosuppressive Regimen With Mycophenolic Acid (Myfortic®) and Standard Dose of Cyclosporine A (Neoral®).</t>
+  </si>
+  <si>
+    <t>Micro-embolic Signals Detection With Transcranial HOLter in Acute Ischemic STroke: Yield in the Etiologic woR-kup</t>
+  </si>
+  <si>
+    <t>Linking fMRI to Mobile Technologies in Addiction Research: Pathophysiology of Executive Deficits, Craving and Substance Use</t>
+  </si>
+  <si>
+    <t>Validation of Brief Computerized Cognitive Assessment in Multiple Sclerosis (BCCAMS) - BICAFMS Study (Brief Cognitive Assessment in French MS Patients)</t>
+  </si>
+  <si>
+    <t>Exploratory Study of the Interest of MRI Susceptibility Weighted Imaging for the Pre-operative Assessment of Pelvic Endometriosis Extent</t>
+  </si>
+  <si>
+    <t>Efficacy of Tacrolimus Ointment 0.1% Versus Placebo in Adults With Facial Non-segmental Vitiligo: a Randomized Double-blind Controlled Study</t>
+  </si>
+  <si>
+    <t>Phase III Randomized Trial of Local Excision Versus Total Mesorectal Excision in Downstaged T2T3 Low Rectal Cancer After Radiochemotherapy</t>
+  </si>
+  <si>
+    <t>Identification of Psychosocial Factors Associated With Diagnostic Delay in Advanced Basal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Validation of Thermometric Cardiac Imaging by MRI</t>
+  </si>
+  <si>
+    <t>Exploratory, Single-institution Study, Comparing 68Ga-RM2 PET/CT Versus 68Ga-PSMA-617 PET/CT in Patients Diagnosed With Prostate Cancer of Various Metastatic Risks Candidates for Radical Prostatectomy - "UROPET"</t>
+  </si>
+  <si>
+    <t>Identification and Quantification of a Mechanical Hyper-synchronicity State in Hypertrophic Cardiomyopathy (HCM) With Left Outflow-tract Obstruction and Description of Its Electrical and Electro-mechanical Characteristics Thanks to an Innovative Multi-imaging Approach to Predict a Positive Response to Dual Chamber Pacing. The Hsync Study.</t>
+  </si>
+  <si>
+    <t>Subcutaneous Route and Pharmacology of Metoclopramide</t>
+  </si>
+  <si>
+    <t>Treatment of Severe and Resistant Obsessive-compulsive Disorder by High-frequency Stimulation of the Ventral Striatum and the Subthalamic Nucleus</t>
+  </si>
+  <si>
+    <t>An Exploratory Study of the Feasibility of the Installation by a Paramedical Staff of a Standardized Meditation Technique "Body-scan", in the Management of Anxiety in Hospitalized Parkinsonian Patients</t>
+  </si>
+  <si>
+    <t>A Pilot Study, Non-comparative Efficiency of Techniques of 'Snail ' and 'Go-back' Application of an Alcoholic Antiseptic on Healthy Skin Before the Placement of a Intra-vascular Device,</t>
+  </si>
+  <si>
     <t>Randomized Clinical Trial Comparing High Flow Oxygen Delivery System (Optiflow) With Oxygen Therapy Under High-concentration Mask on Oxygenation of Patients Who Receive Sequential Non-Invasive Ventilation (NIV) Sessions</t>
   </si>
   <si>
-    <t>Identification of Psychosocial Factors Associated With Diagnostic Delay in Advanced Basal Cell Carcinoma</t>
-  </si>
-  <si>
-    <t>Dynamic Contrast Enhanced Ultrasound for Predict and Assess Rectal Cancer Response After Neo-adjuvant Chemoradiation - RECT</t>
-  </si>
-  <si>
-    <t>Exploratory, Single-institution Study, Comparing 68Ga-RM2 PET/CT Versus 68Ga-PSMA-617 PET/CT in Patients Diagnosed With Prostate Cancer of Various Metastatic Risks Candidates for Radical Prostatectomy - "UROPET"</t>
-  </si>
-  <si>
-    <t>Subcutaneous Route and Pharmacology of Metoclopramide</t>
-  </si>
-  <si>
-    <t>Exploratory Study of the Impact of a Preoperative Formal Hypnosis Session on Perioperative Anxiety Among Female Patients Hospitalised for Hysterectomy Due to Pelvic Gynecological Cancer</t>
-  </si>
-  <si>
-    <t>Daily Glycaemic Variability in Frail or Disabled Older Patients With Diabetes Over 75 Treated With Basal Insulin</t>
-  </si>
-  <si>
     <t>Emotional Processing, Family Life, Friendship and Social Integration in Patients With Multiple Sclerosis</t>
-  </si>
-  <si>
-    <t>A Pilot Study, Non-comparative Efficiency of Techniques of 'Snail ' and 'Go-back' Application of an Alcoholic Antiseptic on Healthy Skin Before the Placement of a Intra-vascular Device,</t>
-  </si>
-  <si>
-    <t>Longitudinal Study of Brain Amyloid imaGing in MEMENTO</t>
   </si>
   <si>
     <t>Description of the ability to learn how to handle inhaler devices in COPD  
  Etude descriptive de la capacité d’apprendre à utiliser des systèmes d’inhalation dans la bronchopneumopathie chronique obstructive</t>
   </si>
   <si>
-    <t>Identification and Quantification of a Mechanical Hyper-synchronicity State in Hypertrophic Cardiomyopathy (HCM) With Left Outflow-tract Obstruction and Description of Its Electrical and Electro-mechanical Characteristics Thanks to an Innovative Multi-imaging Approach to Predict a Positive Response to Dual Chamber Pacing. The Hsync Study.</t>
-  </si>
-  <si>
-    <t>An Exploratory Study of the Feasibility of the Installation by a Paramedical Staff of a Standardized Meditation Technique "Body-scan", in the Management of Anxiety in Hospitalized Parkinsonian Patients</t>
+    <t>Self-help program for hypnotics withdrawal in insomniac patients: A randomized controlled clinical trial.</t>
+  </si>
+  <si>
+    <t>Maintenance of Occupational Therapy for Patients With Alzheimer: A Pragmatic Randomized Trial</t>
+  </si>
+  <si>
+    <t>Dynamic Contrast Enhanced Ultrasound for Predict and Assess Rectal Cancer Response After Neo-adjuvant Chemoradiation - RECT</t>
+  </si>
+  <si>
+    <t>Self-help Program for Hypnotics Withdrawal in Chronic Insomniac Patients: A Randomized Controlled Clinical Trial</t>
   </si>
   <si>
     <t>Prevention of PostConcussion-Like Symptoms for Patients Presenting at the Emergency Room: A Randomized Controlled Study of Early Single Eye Movement Desensitization and Reprocessing (EMDR) Intervention Versus Usual Care</t>
   </si>
   <si>
-    <t>Self-help Program for Hypnotics Withdrawal in Chronic Insomniac Patients: A Randomized Controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Maintenance of Occupational Therapy for Patients With Alzheimer: A Pragmatic Randomized Trial</t>
+    <t>Exploratory Study of the Impact of a Preoperative Formal Hypnosis Session on Perioperative Anxiety Among Female Patients Hospitalised for Hysterectomy Due to Pelvic Gynecological Cancer</t>
+  </si>
+  <si>
+    <t>Longitudinal Study of Brain Amyloid imaGing in MEMENTO</t>
+  </si>
+  <si>
+    <t>Daily Glycaemic Variability in Frail or Disabled Older Patients With Diabetes Over 75 Treated With Basal Insulin</t>
   </si>
   <si>
     <t>Etude monocentrique, exploratoire, comparant la TEP/TDM au 68Ga-RM2 à la TEP/TDM au 68Ga-PSMA-617 chez des patients atteints de cancers de la prostate de différents risques métastatiques, candidats à une prostatectomie totale</t>
   </si>
   <si>
-    <t>Self-help program for hypnotics withdrawal in insomniac patients: A randomized controlled clinical trial.</t>
-  </si>
-  <si>
-    <t>Validation of Thermometric Cardiac Imaging by MRI</t>
-  </si>
-  <si>
-    <t>Treatment of Severe and Resistant Obsessive-compulsive Disorder by High-frequency Stimulation of the Ventral Striatum and the Subthalamic Nucleus</t>
+    <t>LaPAroscopic Low pRessure cOlorectal Surgery</t>
+  </si>
+  <si>
+    <t>Contribution of 18F-FDG PET-CT in the Diagnosis and the Detection of Peripheral Emboli of Infectious Endocarditis on Native Valves</t>
   </si>
   <si>
     <t>Pilot Study Evaluating the Success (= Safe Decannulation) of a Standardized Tracheotomy Weaning Procedure in Brain-injury's Patients</t>
   </si>
   <si>
-    <t>Contribution of 18F-FDG PET-CT in the Diagnosis and the Detection of Peripheral Emboli of Infectious Endocarditis on Native Valves</t>
-  </si>
-  <si>
-    <t>Impact of Neck Inspiratory Muscle Activation During Sleep in ICU Patients After a COVID 19 ARDS</t>
+    <t>Is Fixation of Percutaneous Akin Osteotomy Enhanced First Ray Post-operative Mobility? A Prospective Randomized Study.</t>
+  </si>
+  <si>
+    <t>TRAnexamic Acid for Preventing postpartum hemorrhage following a Cesarean Delivery :a multicenter randomised, double blind placebo controlled trial (TRAAP2) 
+ L'acide tranéxamique en prévention de l'hémorragie du post-partum après césarienne. Etude contrôlée, en double aveugle, contre placebo, randomisée, multicentrique (TRAAP2)</t>
   </si>
   <si>
     <t>Secondary Prophylaxis after CMV disease in Kidney transplant patients targeted by γδ T cells immunomonitoring. 
  Prophylaxie secondaire après une infection à CMV chez les greffés rénaux ciblée par l’immunosurveillance des lymphocytes T γδ.</t>
   </si>
   <si>
+    <t>Comparison of the Incidence of 3 Inspiratory Muscle Training Programs on Inspiratory Strength, on Difficult to Wean Patients in Intensive Care Unit: a Multi-centre Randomised Trial.</t>
+  </si>
+  <si>
+    <t>Health-economic Impact of Pulse Oximetry Systematic Screening of Critical Congenital Heart Disease in Asymptomatic Newborns</t>
+  </si>
+  <si>
     <t>TRAnexamic Acid for Preventing Postpartum Hemorrhage Following a Cesarean Delivery :a Multicenter Randomised, Double Blind Placebo Controlled Trial (TRAAP2)</t>
   </si>
   <si>
+    <t>Role of Frontal Cortex in the Pathophysiology of Gilles de la Tourette Syndrome (GTS)</t>
+  </si>
+  <si>
+    <t>LUNG MRI in the Management of Idiopathic Pulmonary Fibrosis : PIC'IRM</t>
+  </si>
+  <si>
+    <t>Assessment of the Evolution of Force and Endurance of Inspiratory Muscles in Intubated and Mechanically-ventilated ICU Patients With Difficult Weaning</t>
+  </si>
+  <si>
+    <t>Secondary Prophylaxis After CMV Disease in Kidney Transplant Patients Targeted by γδ T</t>
+  </si>
+  <si>
+    <t>Thalamic LFPs and VIM DBS in Essential Tremor: Correlation, Evolution, and Therapeutic Perspectives</t>
+  </si>
+  <si>
+    <t>Magnetic Resonance Elastography of Transplanted Kidney (GREFFE_ELASTO IRM)</t>
+  </si>
+  <si>
+    <t>Multicenter Single-arm Pilot Study Evaluating Efficacy of Nilotinib in CML Patients With Molecular Relapse After Glivec Discontinuation Within the Context of the STIM Trials (STIM and STIM2)</t>
+  </si>
+  <si>
+    <t>Diagnostic Value of MRI for Allergic Broncho-Pulmonary Aspergilloses</t>
+  </si>
+  <si>
+    <t>Impact of Neck Inspiratory Muscle Activation During Sleep in ICU Patients After a COVID 19 ARDS</t>
+  </si>
+  <si>
+    <t>Arnold Chiari Malformation: the Otological Assessment as an Objective Criteria for Surgical Treatment</t>
+  </si>
+  <si>
     <t>Study of Peripartum Haemostasis and Effects of Tranexamic Acid in Caesarean Delivery: Biologic Ancillary Study in TRAAP2 Patients Recruited at the Bordeaux University Hospital: BIO-TRAAP</t>
   </si>
   <si>
-    <t>LUNG MRI in the Management of Idiopathic Pulmonary Fibrosis : PIC'IRM</t>
-  </si>
-  <si>
-    <t>Role of Frontal Cortex in the Pathophysiology of Gilles de la Tourette Syndrome (GTS)</t>
-  </si>
-  <si>
-    <t>Health-economic Impact of Pulse Oximetry Systematic Screening of Critical Congenital Heart Disease in Asymptomatic Newborns</t>
-  </si>
-  <si>
-    <t>Multicenter Single-arm Pilot Study Evaluating Efficacy of Nilotinib in CML Patients With Molecular Relapse After Glivec Discontinuation Within the Context of the STIM Trials (STIM and STIM2)</t>
-  </si>
-  <si>
-    <t>Magnetic Resonance Elastography of Transplanted Kidney (GREFFE_ELASTO IRM)</t>
-  </si>
-  <si>
-    <t>Is Fixation of Percutaneous Akin Osteotomy Enhanced First Ray Post-operative Mobility? A Prospective Randomized Study.</t>
-  </si>
-  <si>
-    <t>Diagnostic Value of MRI for Allergic Broncho-Pulmonary Aspergilloses</t>
-  </si>
-  <si>
-    <t>Secondary Prophylaxis After CMV Disease in Kidney Transplant Patients Targeted by γδ T</t>
-  </si>
-  <si>
-    <t>Assessment of the Evolution of Force and Endurance of Inspiratory Muscles in Intubated and Mechanically-ventilated ICU Patients With Difficult Weaning</t>
-  </si>
-  <si>
-    <t>LaPAroscopic Low pRessure cOlorectal Surgery</t>
-  </si>
-  <si>
-    <t>Thalamic LFPs and VIM DBS in Essential Tremor: Correlation, Evolution, and Therapeutic Perspectives</t>
-  </si>
-  <si>
-    <t>TRAnexamic Acid for Preventing postpartum hemorrhage following a Cesarean Delivery :a multicenter randomised, double blind placebo controlled trial (TRAAP2) 
- L'acide tranéxamique en prévention de l'hémorragie du post-partum après césarienne. Etude contrôlée, en double aveugle, contre placebo, randomisée, multicentrique (TRAAP2)</t>
-  </si>
-  <si>
-    <t>Arnold Chiari Malformation: the Otological Assessment as an Objective Criteria for Surgical Treatment</t>
-  </si>
-  <si>
-    <t>Comparison of the Incidence of 3 Inspiratory Muscle Training Programs on Inspiratory Strength, on Difficult to Wean Patients in Intensive Care Unit: a Multi-centre Randomised Trial.</t>
-  </si>
-  <si>
     <t>Differential Diagnosis Between Parkinson's Disease and Multiple System Atrophy Using Digital Speech Analysis</t>
   </si>
   <si>
+    <t>" Brain Changes After Repetitive Head Impacts in Soccer and the Effects of a Protective Device: Biomechanical, Cognitive, Electrophysiological and Multimodal Neuroimaging Study "</t>
+  </si>
+  <si>
+    <t>Study of the Relationship Between the Pharmacokinetics of Vismodegib and Safety Data: a Pilot Study to Therapeutic Optimization in Patients With Basal Cell Carcinoma - OPTIVISMO-1</t>
+  </si>
+  <si>
+    <t>Pre-hospital Optimization of Triage of Stroke Suspicions: Bringing an Embedded Visio Conference Device</t>
+  </si>
+  <si>
+    <t>Preliminary Study of the Quality of the Oral Flora in Parkinson's Patients</t>
+  </si>
+  <si>
+    <t>Support for the Resumption of Training of High-level Athletes Post-epidemic COVID-19</t>
+  </si>
+  <si>
     <t>Exploratory Feasibility Study for the Development of Mindfulness-based Stress Reduction Program (MBSR )in Parkinsonian Patients - MPARK</t>
   </si>
   <si>
-    <t>Randomized Trial to Evaluate the Safety and Efficacy of Outpatient Treatments to Reduce the Risk of Worsening in Individuals With COVID-19 With Risk Factors (COVERAGE France)</t>
+    <t>Validation Study on Eye Rubbing Questionnaire in Patients With or Suspected of Having a Keratoconus (KC)</t>
+  </si>
+  <si>
+    <t>Microparticles's Role in the Pathophysiology of Systemic Lupus Erythematosus and Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Quantitative Dual Energy Computed Tomography in Pulmonary Hypertension "DECTPH".</t>
+  </si>
+  <si>
+    <t>Evaluation of a New Diagnostic Approach to Familial Amyloid Neuropathy by Mutation of the TTR Gene in a Population of Idiopathic Chronic Neuropathies</t>
+  </si>
+  <si>
+    <t>Frequency of Clonal Hematopoiesis in Patients Over 75 With a First Cardio Vascular Event. Consequences on Inflammation and Atherosclerosis</t>
+  </si>
+  <si>
+    <t>Exploring Brain Damages After COVID-19 Infection</t>
   </si>
   <si>
     <t>Cerebellar Stroke and Mood Disorders</t>
   </si>
   <si>
-    <t>Exploring Brain Damages After COVID-19 Infection</t>
-  </si>
-  <si>
-    <t>Frequency of Clonal Hematopoiesis in Patients Over 75 With a First Cardio Vascular Event. Consequences on Inflammation and Atherosclerosis</t>
-  </si>
-  <si>
-    <t>Preliminary Study of the Quality of the Oral Flora in Parkinson's Patients</t>
+    <t>Evaluation of Non-invasive Measurement of Electrophysiological "HV" Interval Using a High-density and High-fidelity Signal Averaging ECG Device</t>
+  </si>
+  <si>
+    <t>Assessment of the Relations Between Endothelial and Venous Dysfunctions and Left Ventricular Obstruction in Genetic Hypertrophic Cardiomyopathies</t>
   </si>
   <si>
     <t>Home treatment of elderly patients with symptomatic SARS-CoV-2 infection (COVID-19) : a multiarm, multi-stage (MAMS) randomized trial to assess the efficacy and safety of several experimental treatments to reduce the risk of hospitalization or death (COVERAGE trial) 
  Traitement à domicile des personnes âgées présentant une infection symptomatique à SARS-CoV-2 (COVID-19) : un essai randomisé multi-bras multi-étapes (MAMS)  pour évaluer l'efficacité et la tolérance de plusieurs traitements expérimentaux afin de diminuer le risque d'hospitalisation ou de décès</t>
   </si>
   <si>
-    <t>Evaluation of a New Diagnostic Approach to Familial Amyloid Neuropathy by Mutation of the TTR Gene in a Population of Idiopathic Chronic Neuropathies</t>
-  </si>
-  <si>
-    <t>Study of the Relationship Between the Pharmacokinetics of Vismodegib and Safety Data: a Pilot Study to Therapeutic Optimization in Patients With Basal Cell Carcinoma - OPTIVISMO-1</t>
-  </si>
-  <si>
-    <t>Quantitative Dual Energy Computed Tomography in Pulmonary Hypertension "DECTPH".</t>
-  </si>
-  <si>
-    <t>Assessment of the Relations Between Endothelial and Venous Dysfunctions and Left Ventricular Obstruction in Genetic Hypertrophic Cardiomyopathies</t>
-  </si>
-  <si>
-    <t>Support for the Resumption of Training of High-level Athletes Post-epidemic COVID-19</t>
-  </si>
-  <si>
-    <t>" Brain Changes After Repetitive Head Impacts in Soccer and the Effects of a Protective Device: Biomechanical, Cognitive, Electrophysiological and Multimodal Neuroimaging Study "</t>
-  </si>
-  <si>
     <t>Multidisciplinary and Personalized Care of Behavioral Disorders in Frontotemporal Lobar Degeneration.</t>
   </si>
   <si>
-    <t>Validation Study on Eye Rubbing Questionnaire in Patients With or Suspected of Having a Keratoconus (KC)</t>
-  </si>
-  <si>
-    <t>Pre-hospital Optimization of Triage of Stroke Suspicions: Bringing an Embedded Visio Conference Device</t>
+    <t>Randomized Trial to Evaluate the Safety and Efficacy of Outpatient Treatments to Reduce the Risk of Worsening in Individuals With COVID-19 With Risk Factors (COVERAGE France)</t>
+  </si>
+  <si>
+    <t>Prevalence of Fabry's Disease in a Population of Patients With Chronic Pain</t>
+  </si>
+  <si>
+    <t>Relationships Between Sleep Spindle and Cognitive Process in Healthy Adults</t>
+  </si>
+  <si>
+    <t>Early Non-invasive Ventilation and High-flow Nasal Oxygen Therapy for Preventing Delayed Respiratory Failure in Hypoxemic Blunt Chest Trauma Patients.</t>
   </si>
   <si>
     <t>MEMENTO-VAScular COmponents of Dementia</t>
@@ -1690,196 +1705,181 @@
     <t>Comparison of 2 Surgical Approaches in the Treatment of Cervical Degenerative Disc Disease: Total Disc Replacement Versus Anterior Cervical Decompression and Fusion</t>
   </si>
   <si>
-    <t>Relationships Between Sleep Spindle and Cognitive Process in Healthy Adults</t>
-  </si>
-  <si>
-    <t>Prevalence of Fabry's Disease in a Population of Patients With Chronic Pain</t>
-  </si>
-  <si>
-    <t>Evaluation of Non-invasive Measurement of Electrophysiological "HV" Interval Using a High-density and High-fidelity Signal Averaging ECG Device</t>
-  </si>
-  <si>
-    <t>Early Non-invasive Ventilation and High-flow Nasal Oxygen Therapy for Preventing Delayed Respiratory Failure in Hypoxemic Blunt Chest Trauma Patients.</t>
-  </si>
-  <si>
-    <t>Microparticles's Role in the Pathophysiology of Systemic Lupus Erythematosus and Systemic Sclerosis</t>
+    <t>Evaluation of the Impact of a Home-based Intervention by a Pediatric Nurse to Prevent Diabetes Imbalance Within One Year of Its Discovery in Children Whose Parents Are in a Precarious Social Situation (PRECADIAB)</t>
+  </si>
+  <si>
+    <t>Impact of COVID-19 Pandemic and Social Distancing on Mental Health of Chronic Inflammatory Rheumatism Affected Patients</t>
+  </si>
+  <si>
+    <t>Remote Programming of Cardiac Implantable Electronic Device</t>
+  </si>
+  <si>
+    <t>Effect of Irradiation of the Cavernous Sinus and the Sellar Region on Autobiographical Memory</t>
+  </si>
+  <si>
+    <t>Computed Tomography Targets for Efficient Guidance of Catheter Ablation in Ventricular Tachycardia (MAP-IN-HEART)</t>
+  </si>
+  <si>
+    <t>Prevalence of Silent Myocardial Scars on Cardiac Magnetic Resonance Following COVID-19 Infection</t>
+  </si>
+  <si>
+    <t>Oral Ivermectin Versus Topical Permethrin to Treat Scabies in Children and Adults: a Cluster Multicenter Randomized Trial</t>
+  </si>
+  <si>
+    <t>Study of the Efficacy of Propranolol for the Management of Epistaxis in Hereditary Hemorrhagic Telangiectasia Patients</t>
+  </si>
+  <si>
+    <t>A New Membrane Obturator Prothesis Concept for Soft Palate Defects</t>
+  </si>
+  <si>
+    <t>Non Enhanced Labyrinth Imaging for the Detection of Endolymphatic Hydrops in Meniere's Disease "NELI Study"</t>
+  </si>
+  <si>
+    <t>Utilisation d'un Outil de décision médicale partagée Dans la Prise en Charge Des Cystites Aigues Sans Risque de Complication en médecine générale : Comparaison de la Consommation d'Antibiotique Entre Deux Groupes randomisés en Cluster.</t>
+  </si>
+  <si>
+    <t>High B Value Diffusion and Stroke</t>
+  </si>
+  <si>
+    <t>"Sleep, Rhythms and Risk of Alzheimer's Disease: a Daily Life Actigraphic Assessment and MRI Study" "SoRyMA - AMImage3"</t>
+  </si>
+  <si>
+    <t>Antenatal Ultrasound Diagnosis of Periventricular Pseudocysts and Postnatal Outcome</t>
+  </si>
+  <si>
+    <t>Usefulness of Hair Cortisol/Cortisone Concentrations for the Monitoring of Medical Treatment in Patients With Cushing's Disease</t>
+  </si>
+  <si>
+    <t>Psychological Sequelae After Sudden Cardiac Death in the Patient and His Relatives</t>
   </si>
   <si>
     <t>Surgery of Subclinical Cortisol Secreting Adrenal Incidentalomas</t>
   </si>
   <si>
-    <t>Effect of Irradiation of the Cavernous Sinus and the Sellar Region on Autobiographical Memory</t>
-  </si>
-  <si>
-    <t>Computed Tomography Targets for Efficient Guidance of Catheter Ablation in Ventricular Tachycardia (MAP-IN-HEART)</t>
-  </si>
-  <si>
-    <t>Remote Programming of Cardiac Implantable Electronic Device</t>
-  </si>
-  <si>
     <t>O-GlcNAcylation Role in the Pathophysiology of Systemic Lupus Erythematosus</t>
   </si>
   <si>
-    <t>Oral Ivermectin Versus Topical Permethrin to Treat Scabies in Children and Adults: a Cluster Multicenter Randomized Trial</t>
-  </si>
-  <si>
-    <t>Prevalence of Silent Myocardial Scars on Cardiac Magnetic Resonance Following COVID-19 Infection</t>
-  </si>
-  <si>
-    <t>Utilisation d'un Outil de décision médicale partagée Dans la Prise en Charge Des Cystites Aigues Sans Risque de Complication en médecine générale : Comparaison de la Consommation d'Antibiotique Entre Deux Groupes randomisés en Cluster.</t>
-  </si>
-  <si>
-    <t>A New Membrane Obturator Prothesis Concept for Soft Palate Defects</t>
-  </si>
-  <si>
-    <t>Impact of COVID-19 Pandemic and Social Distancing on Mental Health of Chronic Inflammatory Rheumatism Affected Patients</t>
-  </si>
-  <si>
-    <t>Psychological Sequelae After Sudden Cardiac Death in the Patient and His Relatives</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of a Home-based Intervention by a Pediatric Nurse to Prevent Diabetes Imbalance Within One Year of Its Discovery in Children Whose Parents Are in a Precarious Social Situation (PRECADIAB)</t>
-  </si>
-  <si>
-    <t>Antenatal Ultrasound Diagnosis of Periventricular Pseudocysts and Postnatal Outcome</t>
-  </si>
-  <si>
-    <t>High B Value Diffusion and Stroke</t>
-  </si>
-  <si>
-    <t>Non Enhanced Labyrinth Imaging for the Detection of Endolymphatic Hydrops in Meniere's Disease "NELI Study"</t>
-  </si>
-  <si>
-    <t>Study of the Efficacy of Propranolol for the Management of Epistaxis in Hereditary Hemorrhagic Telangiectasia Patients</t>
-  </si>
-  <si>
-    <t>Usefulness of Hair Cortisol/Cortisone Concentrations for the Monitoring of Medical Treatment in Patients With Cushing's Disease</t>
-  </si>
-  <si>
-    <t>"Sleep, Rhythms and Risk of Alzheimer's Disease: a Daily Life Actigraphic Assessment and MRI Study" "SoRyMA - AMImage3"</t>
+    <t>Everyday Life Cognition and Non-conventional Magnetic Resonance Markers in RRMS Patients Treated With Aubagio® in a Real-life Setting</t>
+  </si>
+  <si>
+    <t>Cartography and Quantitative Characterization of Achilles Tendon Fibrocartilage by TE = 0ms Imaging at3T MRI</t>
+  </si>
+  <si>
+    <t>Anti-αIIbβ3 Immunization in Glanzmann Thrombasthenia: Prevalence and Associated Risk Factors: Thrombasthenia Anti-αIIbβ3 Antibodies Study (TAAS)</t>
   </si>
   <si>
     <t>Prospective, Monocentric, Interventional Study on Spontaneous Vaginal Clearance of Mycoplasma Genitalium</t>
   </si>
   <si>
+    <t>Targeting TFPI With Concizumab to Improve Haemostasis in Glanzmann Thrombasthenia Patients: an in Vitro Study</t>
+  </si>
+  <si>
+    <t>A Randomized, Double-blind, Parallel Groups, Placebo-controlled, Proof-of-concept Study to Assess the Efficacy and Safety of Valerian Root Extract and Lavender Essential Oil Combination in Subjects With Sleep Complaints.</t>
+  </si>
+  <si>
+    <t>MagneThermoPro : Magnetic Resonance Thermography of Human Prostate</t>
+  </si>
+  <si>
     <t>Study of Pulmonary MRI for the Diagnosis of Bronchiolitis Obliterans Syndrome After Allogeneic Stem Cell Transplantation</t>
   </si>
   <si>
+    <t>Evaluation of Pain Sensitization in Rheumatoid Arthritis: Analysis on a Cohort of Tofacitinib Treated Patients</t>
+  </si>
+  <si>
+    <t>Diagnostic Value of Multiparametric MR Imaging of Small Solid Renal Tumors (IRMK01)</t>
+  </si>
+  <si>
+    <t>Dietary Phytoestrogens in Blood and Urine of Female Patient With Acute Systemic Lupus Erythematosus</t>
+  </si>
+  <si>
+    <t>MR Elastography Parameters Impact on MR-HIFU Efficacy in Uterine Fibroids</t>
+  </si>
+  <si>
+    <t>Prognostic Value of Arterial Spin Labeling Brain Perfusion MRI in Term Neonates With Hypoxic-ischemic Encephalopathy</t>
+  </si>
+  <si>
+    <t>Hippocampal Microstructure Assessed by a New MRI Sequence and Episodic Memory at the Early Stage of Multiple Sclerosis: Comparison Between Patients After a Clinically Isolated Syndrome (CIS) and Controls</t>
+  </si>
+  <si>
+    <t>Effect on Sleep of Surgical Treatment of Severe Nasal Obstruction</t>
+  </si>
+  <si>
+    <t>Optimization of VIM Targeting in Essential Tremor Surgery</t>
+  </si>
+  <si>
+    <t>Skin Sympathetic Nerve Activity and Cardiac Arrhythmia</t>
+  </si>
+  <si>
+    <t>Mortality and Economic Impact of Stopping Statins in People Aged of 75 and Over: a Pragmatic Clinical Trial</t>
+  </si>
+  <si>
+    <t>Persistent PostConcussion-Like Symptoms and Post Traumatic Stress Disorder for Patients Presenting at the Emergency Room: A Multi-center Cluster Randomized Cross-over Implementation Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of Effect and Tolerance of the Association of Baricitinib (4 mg) and Phototherapy Versus Phototherapy in Adults With Progressive Vitiligo: a Randomized, Double-blind, Prospective, Non-comparative Phase II Study.</t>
+  </si>
+  <si>
+    <t>Prospective Study to Investigate Neuropathy in Patients Monitored for Wild-type TTR Cardiac Amyloidosis (Non-mutated)</t>
+  </si>
+  <si>
     <t>Cross-sectional, Multi-center Study Comparing Diagnostic Performance Between the CAD EYE System and the Physician on Histological Prediction of Colonic Polyps in Screening of Colorectal Cancer by Colonoscopy</t>
   </si>
   <si>
-    <t>Targeting TFPI With Concizumab to Improve Haemostasis in Glanzmann Thrombasthenia Patients: an in Vitro Study</t>
-  </si>
-  <si>
-    <t>Effect on Sleep of Surgical Treatment of Severe Nasal Obstruction</t>
-  </si>
-  <si>
-    <t>Diagnostic Value of Multiparametric MR Imaging of Small Solid Renal Tumors (IRMK01)</t>
-  </si>
-  <si>
-    <t>Hippocampal Microstructure Assessed by a New MRI Sequence and Episodic Memory at the Early Stage of Multiple Sclerosis: Comparison Between Patients After a Clinically Isolated Syndrome (CIS) and Controls</t>
-  </si>
-  <si>
-    <t>Skin Sympathetic Nerve Activity and Cardiac Arrhythmia</t>
-  </si>
-  <si>
-    <t>Everyday Life Cognition and Non-conventional Magnetic Resonance Markers in RRMS Patients Treated With Aubagio® in a Real-life Setting</t>
-  </si>
-  <si>
-    <t>Evaluation of Pain Sensitization in Rheumatoid Arthritis: Analysis on a Cohort of Tofacitinib Treated Patients</t>
-  </si>
-  <si>
-    <t>Anti-αIIbβ3 Immunization in Glanzmann Thrombasthenia: Prevalence and Associated Risk Factors: Thrombasthenia Anti-αIIbβ3 Antibodies Study (TAAS)</t>
-  </si>
-  <si>
-    <t>Cartography and Quantitative Characterization of Achilles Tendon Fibrocartilage by TE = 0ms Imaging at3T MRI</t>
-  </si>
-  <si>
-    <t>A Randomized, Double-blind, Parallel Groups, Placebo-controlled, Proof-of-concept Study to Assess the Efficacy and Safety of Valerian Root Extract and Lavender Essential Oil Combination in Subjects With Sleep Complaints.</t>
-  </si>
-  <si>
-    <t>MagneThermoPro : Magnetic Resonance Thermography of Human Prostate</t>
-  </si>
-  <si>
-    <t>Optimization of VIM Targeting in Essential Tremor Surgery</t>
-  </si>
-  <si>
-    <t>MR Elastography Parameters Impact on MR-HIFU Efficacy in Uterine Fibroids</t>
-  </si>
-  <si>
-    <t>Evaluation of Effect and Tolerance of the Association of Baricitinib (4 mg) and Phototherapy Versus Phototherapy in Adults With Progressive Vitiligo: a Randomized, Double-blind, Prospective, Non-comparative Phase II Study.</t>
-  </si>
-  <si>
-    <t>Prospective Study to Investigate Neuropathy in Patients Monitored for Wild-type TTR Cardiac Amyloidosis (Non-mutated)</t>
-  </si>
-  <si>
-    <t>Mortality and Economic Impact of Stopping Statins in People Aged of 75 and Over: a Pragmatic Clinical Trial</t>
-  </si>
-  <si>
-    <t>Prognostic Value of Arterial Spin Labeling Brain Perfusion MRI in Term Neonates With Hypoxic-ischemic Encephalopathy</t>
-  </si>
-  <si>
-    <t>Persistent PostConcussion-Like Symptoms and Post Traumatic Stress Disorder for Patients Presenting at the Emergency Room: A Multi-center Cluster Randomized Cross-over Implementation Study.</t>
-  </si>
-  <si>
-    <t>Dietary Phytoestrogens in Blood and Urine of Female Patient With Acute Systemic Lupus Erythematosus</t>
+    <t>Antimicrobial Therapy for Ventilator-associated Pneumonia Among Patients Colonized With Extended-spectrum Beta-lactamase-producing Enterobacteriaceae : Efficacy of a Strategy Using Piperacillin-tazobactam as Empirical Treatment.</t>
+  </si>
+  <si>
+    <t>Voice Biomarkers to Predict Excessive Daytime Sleepiness</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effect of Neurofeedback Targeting EEG Theta / Beta Activities on the Strengthening of Wakefulness Maintenance Capacities and Cognitive Performance.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of Osteopathic Treatment on the Mother-newborn Dyad in the Event of Painful Breastfeeding in the Maternity Hospital Despite the Application of All Usual Aids: Randomized Interventional Study in Clusters in Two Parallel Arms Without Blinding. AMATOSTEO</t>
+  </si>
+  <si>
+    <t>Alkalinization of Adrenalized Lidocaine in Extending Epidural Analgesia for Extremely Urgent Cesarean Section During Labor: a Randomized Controlled Trial.</t>
+  </si>
+  <si>
+    <t>Feasibility of Optimizing Organized Cervical Cancer Screening by Urine Self-sampling</t>
+  </si>
+  <si>
+    <t>Evaluation by Electrical Impedancemetry of the Variation of Lung Volumes Under NIV in Patients With COPD</t>
+  </si>
+  <si>
+    <t>Measurement of the Electromechanical Window to Improve the Diagnosis of Congenital Long QT Syndrome</t>
+  </si>
+  <si>
+    <t>Benefits of Spa Therapy in Saint-Lary Soulan for Knee Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Remote Programming of Cardiac Implantable Electronic Devices 2</t>
+  </si>
+  <si>
+    <t>Optimisation of Response for Organ Preservation in Rectal Cancer : Neoadjuvant Chemotherapy and Radiochemotherapy vs. Radiochemotherapy</t>
+  </si>
+  <si>
+    <t>Monocentric Pilot Study of the Feasibility of Teleconsultations Hypnosis Sessions Led by a Nurse for Patients with Peripheral Chronic Neuropathic Pain - HYPTEC</t>
+  </si>
+  <si>
+    <t>Evaluating a Therapeutic Association Between CMV-specific Immunoglobulin Infusion and Pre-transplant CD16-expressing Gamma Delta Vdelta 2 Negative T-cells in CMV-positive Patients for Preventive Treatment of CMV Infection in Renal Transplantation</t>
+  </si>
+  <si>
+    <t>Interest of Continuous Non-Steroidal Anti-Inflammatory Drug Treatment in Ankylosing Spondylitis Patients Treated by Anti-TNF Therapy in the Prevention of Radiographic Outcomes</t>
+  </si>
+  <si>
+    <t>Computed Tomography-Guided Catheter Ablation for Ventricular Tachycardia (InEurHeart Study)</t>
+  </si>
+  <si>
+    <t>Diagnostic Value of Mass Spectrometry-based Proteomics in Microvascular Inflammation in Kidney Transplantation, the TranSpec Study.</t>
+  </si>
+  <si>
+    <t>Decoding Islet Algorithms in Biosensors for Open and Closed-loop Glycemia Control in T1D Patients With Insulin Pump Coupled to Sensors.</t>
   </si>
   <si>
     <t>Alkalinization of adrenalized lidocaine in extending epidural analgesia for extremely urgent cesarean section during labor: a randomized controlled trial. 
  Alcalinisation de la lidocaïne adrénalinée dans l’extension d’analgésie péridurale pour césarienne en extrême urgence au cours du travail : un essai randomisé contrôlé.</t>
   </si>
   <si>
-    <t>Monocentric Pilot Study of the Feasibility of Teleconsultations Hypnosis Sessions Led by a Nurse for Patients with Peripheral Chronic Neuropathic Pain - HYPTEC</t>
-  </si>
-  <si>
-    <t>Measurement of the Electromechanical Window to Improve the Diagnosis of Congenital Long QT Syndrome</t>
-  </si>
-  <si>
-    <t>Voice Biomarkers to Predict Excessive Daytime Sleepiness</t>
-  </si>
-  <si>
-    <t>Evaluating a Therapeutic Association Between CMV-specific Immunoglobulin Infusion and Pre-transplant CD16-expressing Gamma Delta Vdelta 2 Negative T-cells in CMV-positive Patients for Preventive Treatment of CMV Infection in Renal Transplantation</t>
-  </si>
-  <si>
-    <t>Feasibility of Optimizing Organized Cervical Cancer Screening by Urine Self-sampling</t>
-  </si>
-  <si>
-    <t>Remote Programming of Cardiac Implantable Electronic Devices 2</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of Neurofeedback Targeting EEG Theta / Beta Activities on the Strengthening of Wakefulness Maintenance Capacities and Cognitive Performance.</t>
-  </si>
-  <si>
-    <t>Alkalinization of Adrenalized Lidocaine in Extending Epidural Analgesia for Extremely Urgent Cesarean Section During Labor: a Randomized Controlled Trial.</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of Osteopathic Treatment on the Mother-newborn Dyad in the Event of Painful Breastfeeding in the Maternity Hospital Despite the Application of All Usual Aids: Randomized Interventional Study in Clusters in Two Parallel Arms Without Blinding. AMATOSTEO</t>
-  </si>
-  <si>
-    <t>Computed Tomography-Guided Catheter Ablation for Ventricular Tachycardia (InEurHeart Study)</t>
-  </si>
-  <si>
-    <t>Decoding Islet Algorithms in Biosensors for Open and Closed-loop Glycemia Control in T1D Patients With Insulin Pump Coupled to Sensors.</t>
-  </si>
-  <si>
-    <t>Optimisation of Response for Organ Preservation in Rectal Cancer : Neoadjuvant Chemotherapy and Radiochemotherapy vs. Radiochemotherapy</t>
-  </si>
-  <si>
-    <t>Diagnostic Value of Mass Spectrometry-based Proteomics in Microvascular Inflammation in Kidney Transplantation, the TranSpec Study.</t>
-  </si>
-  <si>
-    <t>Evaluation by Electrical Impedancemetry of the Variation of Lung Volumes Under NIV in Patients With COPD</t>
-  </si>
-  <si>
-    <t>Interest of Continuous Non-Steroidal Anti-Inflammatory Drug Treatment in Ankylosing Spondylitis Patients Treated by Anti-TNF Therapy in the Prevention of Radiographic Outcomes</t>
-  </si>
-  <si>
-    <t>Antimicrobial Therapy for Ventilator-associated Pneumonia Among Patients Colonized With Extended-spectrum Beta-lactamase-producing Enterobacteriaceae : Efficacy of a Strategy Using Piperacillin-tazobactam as Empirical Treatment.</t>
-  </si>
-  <si>
-    <t>Benefits of Spa Therapy in Saint-Lary Soulan for Knee Osteoarthritis</t>
-  </si>
-  <si>
     <t>Prospective pilot study evaluating a therapeutic synergy between the infusion of CMV-specific immunoglobulins and the level before transplantation of negative gamma delta Vdelta 2 T lymphocytes expressing CD16 in patients seropositive for CMV as preventive treatment for CMV infection by 
  Etude pilote prospective évaluant une synergie thérapeutique entre la perfusion d'immunoglobulines spécifiques du CMV et le taux avant la greffe des lymphocytes T gamma delta V delta 2 négatifs exprimant le CD16 chez les patients séropositifs pour le CMV en traitement préventif d'une infection à CMV en transplantation rénale.</t>
   </si>
@@ -1917,103 +1917,133 @@
     <t>FENTANULD</t>
   </si>
   <si>
+    <t>NefalCard</t>
+  </si>
+  <si>
+    <t>ECG-Spectral</t>
+  </si>
+  <si>
     <t>AGRUVASC</t>
   </si>
   <si>
-    <t>ECG-Spectral</t>
-  </si>
-  <si>
-    <t>NefalCard</t>
+    <t>CATETEL</t>
+  </si>
+  <si>
+    <t>Bain de bouche</t>
+  </si>
+  <si>
+    <t>REVOLU</t>
+  </si>
+  <si>
+    <t>PoLyDOL</t>
+  </si>
+  <si>
+    <t>HFPV</t>
+  </si>
+  <si>
+    <t>PRIVASOM</t>
+  </si>
+  <si>
+    <t>Expansion</t>
   </si>
   <si>
     <t>MITASTHME</t>
   </si>
   <si>
-    <t>Bain de bouche</t>
-  </si>
-  <si>
-    <t>Expansion</t>
-  </si>
-  <si>
-    <t>HFPV</t>
-  </si>
-  <si>
-    <t>CATETEL</t>
-  </si>
-  <si>
-    <t>PoLyDOL</t>
-  </si>
-  <si>
-    <t>PRIVASOM</t>
-  </si>
-  <si>
-    <t>REVOLU</t>
+    <t>POSTURADULT</t>
+  </si>
+  <si>
+    <t>SCLEROGLIVEC</t>
+  </si>
+  <si>
+    <t>BRINDLEY</t>
+  </si>
+  <si>
+    <t>SévoRein</t>
   </si>
   <si>
     <t>IVOIRE</t>
   </si>
   <si>
+    <t>EADO</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>ACOUSCO</t>
+  </si>
+  <si>
+    <t>SALIVENDO</t>
+  </si>
+  <si>
     <t>ICALP</t>
   </si>
   <si>
-    <t>POSTURADULT</t>
-  </si>
-  <si>
-    <t>EADO</t>
-  </si>
-  <si>
-    <t>SCLEROGLIVEC</t>
-  </si>
-  <si>
-    <t>BRINDLEY</t>
-  </si>
-  <si>
-    <t>ACOUSCO</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>SévoRein</t>
-  </si>
-  <si>
-    <t>SALIVENDO</t>
+    <t>GLIO-TEP</t>
+  </si>
+  <si>
+    <t>VERTEBRO-MCPC</t>
+  </si>
+  <si>
+    <t>RISTOMED</t>
   </si>
   <si>
     <t>ZEVALLO</t>
   </si>
   <si>
+    <t>STIM</t>
+  </si>
+  <si>
+    <t>VHYPER</t>
+  </si>
+  <si>
+    <t>SOXIS</t>
+  </si>
+  <si>
+    <t>EMOTREM</t>
+  </si>
+  <si>
+    <t>SOMVIE</t>
+  </si>
+  <si>
+    <t>KILLSLEEP</t>
+  </si>
+  <si>
+    <t>REMOB</t>
+  </si>
+  <si>
     <t>SEDA-FIBRO</t>
   </si>
   <si>
-    <t>EMOTREM</t>
-  </si>
-  <si>
-    <t>REMOB</t>
-  </si>
-  <si>
-    <t>SOXIS</t>
-  </si>
-  <si>
-    <t>GLIO-TEP</t>
-  </si>
-  <si>
-    <t>SOMVIE</t>
-  </si>
-  <si>
-    <t>VHYPER</t>
-  </si>
-  <si>
-    <t>VERTEBRO-MCPC</t>
-  </si>
-  <si>
-    <t>RISTOMED</t>
-  </si>
-  <si>
-    <t>STIM</t>
-  </si>
-  <si>
-    <t>KILLSLEEP</t>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>THYSU</t>
+  </si>
+  <si>
+    <t>ECHO-DIAB</t>
+  </si>
+  <si>
+    <t>INOGAD</t>
+  </si>
+  <si>
+    <t>PULMOTEP</t>
+  </si>
+  <si>
+    <t>ETNA3</t>
+  </si>
+  <si>
+    <t>REMODEL'ASTHME</t>
+  </si>
+  <si>
+    <t>PROMESS</t>
+  </si>
+  <si>
+    <t>DOUFAB</t>
+  </si>
+  <si>
+    <t>AUTOSOP</t>
   </si>
   <si>
     <t>FLUOK</t>
@@ -2022,277 +2052,277 @@
     <t>MOH-PET</t>
   </si>
   <si>
-    <t>PULMOTEP</t>
-  </si>
-  <si>
-    <t>DOUFAB</t>
-  </si>
-  <si>
-    <t>THYSU</t>
-  </si>
-  <si>
     <t>CAM-ET</t>
   </si>
   <si>
-    <t>REMODEL'ASTHME</t>
-  </si>
-  <si>
-    <t>ETNA3</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>AUTOSOP</t>
-  </si>
-  <si>
-    <t>INOGAD</t>
-  </si>
-  <si>
-    <t>ECHO-DIAB</t>
-  </si>
-  <si>
-    <t>PROMESS</t>
+    <t>Oméga 3</t>
+  </si>
+  <si>
+    <t>I-Gel</t>
+  </si>
+  <si>
+    <t>IREN</t>
+  </si>
+  <si>
+    <t>MISOGLIO</t>
+  </si>
+  <si>
+    <t>IBVM/DATSCAN</t>
+  </si>
+  <si>
+    <t>BIOLENS</t>
+  </si>
+  <si>
+    <t>LIMPIA</t>
+  </si>
+  <si>
+    <t>ACCIO</t>
   </si>
   <si>
     <t>APPACHES</t>
   </si>
   <si>
-    <t>Oméga 3</t>
+    <t>TAPlastie</t>
+  </si>
+  <si>
+    <t>LAM-SA 2007</t>
+  </si>
+  <si>
+    <t>VISECA</t>
+  </si>
+  <si>
+    <t>NARFI</t>
+  </si>
+  <si>
+    <t>FACTSEP</t>
   </si>
   <si>
     <t>SPONGIT</t>
   </si>
   <si>
-    <t>VISECA</t>
-  </si>
-  <si>
-    <t>I-Gel</t>
-  </si>
-  <si>
-    <t>LIMPIA</t>
+    <t>TOTEME</t>
   </si>
   <si>
     <t>SOMTDA/H</t>
   </si>
   <si>
-    <t>IBVM/DATSCAN</t>
-  </si>
-  <si>
-    <t>TOTEME</t>
-  </si>
-  <si>
-    <t>BIOLENS</t>
-  </si>
-  <si>
-    <t>MISOGLIO</t>
-  </si>
-  <si>
-    <t>ACCIO</t>
-  </si>
-  <si>
-    <t>NARFI</t>
-  </si>
-  <si>
-    <t>FACTSEP</t>
-  </si>
-  <si>
-    <t>LAM-SA 2007</t>
-  </si>
-  <si>
-    <t>IREN</t>
-  </si>
-  <si>
-    <t>TAPlastie</t>
+    <t>REVALLO</t>
+  </si>
+  <si>
+    <t>CAPARFI</t>
+  </si>
+  <si>
+    <t>NASEPT</t>
+  </si>
+  <si>
+    <t>MAIS</t>
+  </si>
+  <si>
+    <t>VAPS REHAB</t>
+  </si>
+  <si>
+    <t>NAVEOS</t>
   </si>
   <si>
     <t>RUBIVAL</t>
   </si>
   <si>
-    <t>NASEPT</t>
+    <t>GRAPA</t>
+  </si>
+  <si>
+    <t>HRM RTSIO</t>
+  </si>
+  <si>
+    <t>SIGNAL</t>
+  </si>
+  <si>
+    <t>CARTO-CRT</t>
+  </si>
+  <si>
+    <t>VISUOPEV</t>
+  </si>
+  <si>
+    <t>PHARMA-A</t>
   </si>
   <si>
     <t>LIPOGENE</t>
   </si>
   <si>
-    <t>GRAPA</t>
-  </si>
-  <si>
-    <t>CAPARFI</t>
-  </si>
-  <si>
-    <t>HRM RTSIO</t>
-  </si>
-  <si>
     <t>INTEGRA®</t>
   </si>
   <si>
     <t>MISORL</t>
   </si>
   <si>
-    <t>VAPS REHAB</t>
-  </si>
-  <si>
-    <t>CARTO-CRT</t>
-  </si>
-  <si>
-    <t>PHARMA-A</t>
-  </si>
-  <si>
-    <t>VISUOPEV</t>
-  </si>
-  <si>
-    <t>MAIS</t>
-  </si>
-  <si>
-    <t>SIGNAL</t>
-  </si>
-  <si>
-    <t>REVALLO</t>
-  </si>
-  <si>
-    <t>NAVEOS</t>
+    <t>START</t>
+  </si>
+  <si>
+    <t>GRECCAR 5</t>
+  </si>
+  <si>
+    <t>REV-LEG</t>
+  </si>
+  <si>
+    <t>PHARO</t>
+  </si>
+  <si>
+    <t>NAVA-VNI</t>
+  </si>
+  <si>
+    <t>HEPADIAL</t>
+  </si>
+  <si>
+    <t>EVAX</t>
+  </si>
+  <si>
+    <t>P'tit-ASTHME</t>
+  </si>
+  <si>
+    <t>EPI-ENDO</t>
+  </si>
+  <si>
+    <t>NIDABRECHE</t>
+  </si>
+  <si>
+    <t>CONSTIMOD</t>
+  </si>
+  <si>
+    <t>PROTOX</t>
+  </si>
+  <si>
+    <t>MatriBone</t>
+  </si>
+  <si>
+    <t>AMIMAGE 2</t>
+  </si>
+  <si>
+    <t>CA2D</t>
+  </si>
+  <si>
+    <t>SCOAL</t>
   </si>
   <si>
     <t>COSTELLO</t>
   </si>
   <si>
-    <t>CONSTIMOD</t>
-  </si>
-  <si>
-    <t>HEPADIAL</t>
-  </si>
-  <si>
-    <t>P'tit-ASTHME</t>
-  </si>
-  <si>
-    <t>NIDABRECHE</t>
-  </si>
-  <si>
-    <t>PROTOX</t>
-  </si>
-  <si>
-    <t>MatriBone</t>
-  </si>
-  <si>
-    <t>EVAX</t>
-  </si>
-  <si>
-    <t>CA2D</t>
-  </si>
-  <si>
-    <t>REV-LEG</t>
-  </si>
-  <si>
-    <t>EPI-ENDO</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>SCOAL</t>
-  </si>
-  <si>
-    <t>NAVA-VNI</t>
-  </si>
-  <si>
     <t>CRYOMAV</t>
   </si>
   <si>
-    <t>GRECCAR 5</t>
-  </si>
-  <si>
-    <t>AMIMAGE 2</t>
-  </si>
-  <si>
-    <t>PHARO</t>
+    <t>GASTRIM</t>
+  </si>
+  <si>
+    <t>RYTHMODIAL</t>
+  </si>
+  <si>
+    <t>CAPADOGE</t>
+  </si>
+  <si>
+    <t>FEMCAT</t>
+  </si>
+  <si>
+    <t>EMPHYREM</t>
+  </si>
+  <si>
+    <t>PARKEO</t>
   </si>
   <si>
     <t>Light-CARMIDO</t>
   </si>
   <si>
+    <t>VISS</t>
+  </si>
+  <si>
+    <t>IMMUNOSEP</t>
+  </si>
+  <si>
+    <t>AMYLASPI</t>
+  </si>
+  <si>
+    <t>RECOGNITA</t>
+  </si>
+  <si>
+    <t>REACTIV</t>
+  </si>
+  <si>
+    <t>StresSleep</t>
+  </si>
+  <si>
+    <t>PNEUMO-VITA-C</t>
+  </si>
+  <si>
+    <t>NEUROMIE</t>
+  </si>
+  <si>
+    <t>PHACINERTA</t>
+  </si>
+  <si>
+    <t>4P-ED</t>
+  </si>
+  <si>
+    <t>APHA-TMS</t>
+  </si>
+  <si>
+    <t>SCI-COG</t>
+  </si>
+  <si>
     <t>PRIMAVERA</t>
   </si>
   <si>
-    <t>PARKEO</t>
-  </si>
-  <si>
-    <t>PNEUMO-VITA-C</t>
-  </si>
-  <si>
-    <t>EMPHYREM</t>
-  </si>
-  <si>
-    <t>RECOGNITA</t>
-  </si>
-  <si>
-    <t>PHACINERTA</t>
-  </si>
-  <si>
-    <t>REACTIV</t>
-  </si>
-  <si>
-    <t>CAPADOGE</t>
-  </si>
-  <si>
-    <t>RYTHMODIAL</t>
-  </si>
-  <si>
-    <t>FEMCAT</t>
-  </si>
-  <si>
-    <t>AMYLASPI</t>
-  </si>
-  <si>
-    <t>IMMUNOSEP</t>
-  </si>
-  <si>
-    <t>APHA-TMS</t>
-  </si>
-  <si>
-    <t>VISS</t>
-  </si>
-  <si>
-    <t>4P-ED</t>
-  </si>
-  <si>
-    <t>SCI-COG</t>
-  </si>
-  <si>
-    <t>NEUROMIE</t>
-  </si>
-  <si>
-    <t>StresSleep</t>
-  </si>
-  <si>
-    <t>GASTRIM</t>
-  </si>
-  <si>
     <t>EvaMAP</t>
   </si>
   <si>
+    <t>CannaPREG</t>
+  </si>
+  <si>
+    <t>RITALLO</t>
+  </si>
+  <si>
     <t>STBETA</t>
   </si>
   <si>
+    <t>CLOPUS</t>
+  </si>
+  <si>
+    <t>ECLAIR</t>
+  </si>
+  <si>
+    <t>ANDDROID</t>
+  </si>
+  <si>
+    <t>EMDR-ED</t>
+  </si>
+  <si>
     <t>SOMNET</t>
   </si>
   <si>
-    <t>ANDDROID</t>
-  </si>
-  <si>
-    <t>ECLAIR</t>
+    <t>Musitox®</t>
+  </si>
+  <si>
+    <t>NEPHRODENT</t>
+  </si>
+  <si>
+    <t>HIPPIE</t>
+  </si>
+  <si>
+    <t>ETHEPAT</t>
+  </si>
+  <si>
+    <t>STIM 2</t>
+  </si>
+  <si>
+    <t>PRODIGE 21</t>
+  </si>
+  <si>
+    <t>MucoIRM</t>
   </si>
   <si>
     <t>PLASMASEP</t>
   </si>
   <si>
-    <t>RITALLO</t>
-  </si>
-  <si>
-    <t>PRODIGE 21</t>
-  </si>
-  <si>
-    <t>NEPHRODENT</t>
+    <t>SENA</t>
+  </si>
+  <si>
+    <t>PERAGUS</t>
   </si>
   <si>
     <t>SOCOG-MS</t>
@@ -2301,43 +2331,7 @@
     <t>VEILLETDAH</t>
   </si>
   <si>
-    <t>EMDR-ED</t>
-  </si>
-  <si>
-    <t>Musitox®</t>
-  </si>
-  <si>
-    <t>CannaPREG</t>
-  </si>
-  <si>
-    <t>CLOPUS</t>
-  </si>
-  <si>
-    <t>PERAGUS</t>
-  </si>
-  <si>
-    <t>HIPPIE</t>
-  </si>
-  <si>
-    <t>ETHEPAT</t>
-  </si>
-  <si>
-    <t>STIM 2</t>
-  </si>
-  <si>
-    <t>SENA</t>
-  </si>
-  <si>
-    <t>MucoIRM</t>
-  </si>
-  <si>
-    <t>MobiCogIm</t>
-  </si>
-  <si>
-    <t>HOLISTER</t>
-  </si>
-  <si>
-    <t>EndoSWI</t>
+    <t>SOMAL</t>
   </si>
   <si>
     <t>ENDOTEP</t>
@@ -2346,214 +2340,235 @@
     <t>PULPISOLONE</t>
   </si>
   <si>
-    <t>ANEMIL</t>
-  </si>
-  <si>
-    <t>SOMAL</t>
-  </si>
-  <si>
-    <t>GRECCAR 2</t>
-  </si>
-  <si>
-    <t>EVERCMV</t>
-  </si>
-  <si>
     <t>EFFORR</t>
   </si>
   <si>
-    <t>TICTAVI</t>
-  </si>
-  <si>
-    <t>VITAC</t>
-  </si>
-  <si>
-    <t>BICAFMS</t>
-  </si>
-  <si>
     <t>AsthmaDom</t>
+  </si>
+  <si>
+    <t>VIAGECO</t>
+  </si>
+  <si>
+    <t>CRANIOEXE</t>
+  </si>
+  <si>
+    <t>CAPNOSSPI</t>
   </si>
   <si>
     <t>TICTAVI 
  TICTAVI</t>
   </si>
   <si>
-    <t>VIAGECO</t>
+    <t>ANEMIL</t>
+  </si>
+  <si>
+    <t>EVERCMV</t>
+  </si>
+  <si>
+    <t>HOLISTER</t>
   </si>
   <si>
     <t>DYSCHOL</t>
   </si>
   <si>
-    <t>CAPNOSSPI</t>
-  </si>
-  <si>
-    <t>CRANIOEXE</t>
+    <t>MobiCogIm</t>
+  </si>
+  <si>
+    <t>BICAFMS</t>
+  </si>
+  <si>
+    <t>EndoSWI</t>
+  </si>
+  <si>
+    <t>VITAC</t>
+  </si>
+  <si>
+    <t>GRECCAR 2</t>
+  </si>
+  <si>
+    <t>TICTAVI</t>
+  </si>
+  <si>
+    <t>PSYCHO-CBC</t>
+  </si>
+  <si>
+    <t>VAIMTH-IRM</t>
+  </si>
+  <si>
+    <t>UROPET</t>
+  </si>
+  <si>
+    <t>HSYNC</t>
+  </si>
+  <si>
+    <t>SOPHA-Méto</t>
+  </si>
+  <si>
+    <t>STOC2</t>
+  </si>
+  <si>
+    <t>PARAM2A</t>
+  </si>
+  <si>
+    <t>TApAS</t>
   </si>
   <si>
     <t>VNI-HD</t>
   </si>
   <si>
-    <t>PSYCHO-CBC</t>
-  </si>
-  <si>
-    <t>RECT</t>
-  </si>
-  <si>
-    <t>UROPET</t>
-  </si>
-  <si>
-    <t>SOPHA-Méto</t>
-  </si>
-  <si>
-    <t>HYPPOGYN</t>
-  </si>
-  <si>
-    <t>VARQUOGLY</t>
-  </si>
-  <si>
     <t>EMOSOCIAL-MS</t>
-  </si>
-  <si>
-    <t>TApAS</t>
-  </si>
-  <si>
-    <t>MEMENTOAmyGing</t>
   </si>
   <si>
     <t>INTUITIVE 
  INTUITIVE</t>
   </si>
   <si>
-    <t>HSYNC</t>
-  </si>
-  <si>
-    <t>PARAM2A</t>
+    <t>PROPERSOM</t>
+  </si>
+  <si>
+    <t>MaTheoAlz</t>
+  </si>
+  <si>
+    <t>RECT</t>
   </si>
   <si>
     <t>SOFTER3</t>
   </si>
   <si>
-    <t>PROPERSOM</t>
-  </si>
-  <si>
-    <t>MaTheoAlz</t>
+    <t>HYPPOGYN</t>
   </si>
   <si>
     <t>INTUITIVE</t>
   </si>
   <si>
-    <t>VAIMTH-IRM</t>
-  </si>
-  <si>
-    <t>STOC2</t>
+    <t>MEMENTOAmyGing</t>
+  </si>
+  <si>
+    <t>VARQUOGLY</t>
+  </si>
+  <si>
+    <t>PAROS</t>
+  </si>
+  <si>
+    <t>NATIVTEP</t>
   </si>
   <si>
     <t>DECATRAC</t>
   </si>
   <si>
-    <t>NATIVTEP</t>
-  </si>
-  <si>
-    <t>COVISLEEP</t>
+    <t>AKIN</t>
+  </si>
+  <si>
+    <t>TRAAP2</t>
   </si>
   <si>
     <t>SPARCKLING 
  SPARCKLING</t>
   </si>
   <si>
-    <t>TRAAP2</t>
+    <t>PREDRIC</t>
+  </si>
+  <si>
+    <t>OXYNAT</t>
+  </si>
+  <si>
+    <t>TIC-EEG</t>
+  </si>
+  <si>
+    <t>PIC'IRM</t>
+  </si>
+  <si>
+    <t>EFES</t>
+  </si>
+  <si>
+    <t>CARRY</t>
+  </si>
+  <si>
+    <t>SPARCKLING</t>
+  </si>
+  <si>
+    <t>VIM-CLT</t>
+  </si>
+  <si>
+    <t>NiloPost-STIM</t>
+  </si>
+  <si>
+    <t>ABPA-MR</t>
+  </si>
+  <si>
+    <t>COVISLEEP</t>
+  </si>
+  <si>
+    <t>MCoto</t>
   </si>
   <si>
     <t>BIO-TRAAP</t>
   </si>
   <si>
-    <t>PIC'IRM</t>
-  </si>
-  <si>
-    <t>TIC-EEG</t>
-  </si>
-  <si>
-    <t>OXYNAT</t>
-  </si>
-  <si>
-    <t>NiloPost-STIM</t>
-  </si>
-  <si>
-    <t>AKIN</t>
-  </si>
-  <si>
-    <t>ABPA-MR</t>
-  </si>
-  <si>
-    <t>SPARCKLING</t>
-  </si>
-  <si>
-    <t>EFES</t>
-  </si>
-  <si>
-    <t>PAROS</t>
-  </si>
-  <si>
-    <t>CARRY</t>
-  </si>
-  <si>
-    <t>VIM-CLT</t>
-  </si>
-  <si>
-    <t>MCoto</t>
-  </si>
-  <si>
-    <t>PREDRIC</t>
-  </si>
-  <si>
     <t>Voice4PD-MSA</t>
   </si>
   <si>
+    <t>Soccer-BRAIN</t>
+  </si>
+  <si>
+    <t>OPTIVISMO-1</t>
+  </si>
+  <si>
+    <t>OPTIC-AVC</t>
+  </si>
+  <si>
+    <t>PARKIDENT</t>
+  </si>
+  <si>
+    <t>ASCCOVID19</t>
+  </si>
+  <si>
     <t>M-PARK</t>
   </si>
   <si>
+    <t>QFK</t>
+  </si>
+  <si>
+    <t>MICROLUPS</t>
+  </si>
+  <si>
+    <t>DECTPH</t>
+  </si>
+  <si>
+    <t>TTR-FAP</t>
+  </si>
+  <si>
+    <t>CHATH</t>
+  </si>
+  <si>
+    <t>BRAINCOV</t>
+  </si>
+  <si>
+    <t>CERMOOD</t>
+  </si>
+  <si>
+    <t>BIOSEMI-HV</t>
+  </si>
+  <si>
+    <t>HCM-Vein</t>
+  </si>
+  <si>
+    <t>COVERAGE</t>
+  </si>
+  <si>
+    <t>DLFT</t>
+  </si>
+  <si>
     <t>COVERAGEFrance</t>
   </si>
   <si>
-    <t>CERMOOD</t>
-  </si>
-  <si>
-    <t>BRAINCOV</t>
-  </si>
-  <si>
-    <t>CHATH</t>
-  </si>
-  <si>
-    <t>PARKIDENT</t>
-  </si>
-  <si>
-    <t>COVERAGE</t>
-  </si>
-  <si>
-    <t>TTR-FAP</t>
-  </si>
-  <si>
-    <t>OPTIVISMO-1</t>
-  </si>
-  <si>
-    <t>DECTPH</t>
-  </si>
-  <si>
-    <t>HCM-Vein</t>
-  </si>
-  <si>
-    <t>ASCCOVID19</t>
-  </si>
-  <si>
-    <t>Soccer-BRAIN</t>
-  </si>
-  <si>
-    <t>DLFT</t>
-  </si>
-  <si>
-    <t>QFK</t>
-  </si>
-  <si>
-    <t>OPTIC-AVC</t>
+    <t>DOUFABIS</t>
+  </si>
+  <si>
+    <t>FUSO</t>
+  </si>
+  <si>
+    <t>OptiTHO</t>
   </si>
   <si>
     <t>VASCOD</t>
@@ -2565,190 +2580,175 @@
     <t>CERVIDISC</t>
   </si>
   <si>
-    <t>FUSO</t>
-  </si>
-  <si>
-    <t>DOUFABIS</t>
-  </si>
-  <si>
-    <t>BIOSEMI-HV</t>
-  </si>
-  <si>
-    <t>OptiTHO</t>
-  </si>
-  <si>
-    <t>MICROLUPS</t>
+    <t>PRECADIAB</t>
+  </si>
+  <si>
+    <t>EMOPTION</t>
+  </si>
+  <si>
+    <t>REACT</t>
+  </si>
+  <si>
+    <t>ISOMAB</t>
+  </si>
+  <si>
+    <t>MAP-IN-HEART</t>
+  </si>
+  <si>
+    <t>COVID-CMR</t>
+  </si>
+  <si>
+    <t>SCRATCH</t>
+  </si>
+  <si>
+    <t>EPERO</t>
+  </si>
+  <si>
+    <t>VELOMEMBRANE</t>
+  </si>
+  <si>
+    <t>NELI</t>
+  </si>
+  <si>
+    <t>ARIBO</t>
+  </si>
+  <si>
+    <t>HBS</t>
+  </si>
+  <si>
+    <t>AMImage3</t>
+  </si>
+  <si>
+    <t>UDiPPP</t>
+  </si>
+  <si>
+    <t>HAIRCUSH</t>
+  </si>
+  <si>
+    <t>TEMPO</t>
   </si>
   <si>
     <t>CHIRACIC</t>
   </si>
   <si>
-    <t>ISOMAB</t>
-  </si>
-  <si>
-    <t>MAP-IN-HEART</t>
-  </si>
-  <si>
-    <t>REACT</t>
-  </si>
-  <si>
     <t>METABOLUPS</t>
   </si>
   <si>
-    <t>SCRATCH</t>
-  </si>
-  <si>
-    <t>COVID-CMR</t>
-  </si>
-  <si>
-    <t>ARIBO</t>
-  </si>
-  <si>
-    <t>VELOMEMBRANE</t>
-  </si>
-  <si>
-    <t>EMOPTION</t>
-  </si>
-  <si>
-    <t>TEMPO</t>
-  </si>
-  <si>
-    <t>PRECADIAB</t>
-  </si>
-  <si>
-    <t>UDiPPP</t>
-  </si>
-  <si>
-    <t>HBS</t>
-  </si>
-  <si>
-    <t>NELI</t>
-  </si>
-  <si>
-    <t>EPERO</t>
-  </si>
-  <si>
-    <t>HAIRCUSH</t>
-  </si>
-  <si>
-    <t>AMImage3</t>
+    <t>AUBACOG</t>
+  </si>
+  <si>
+    <t>SILENZ</t>
+  </si>
+  <si>
+    <t>TAAS</t>
   </si>
   <si>
     <t>MYCOCLEAR</t>
   </si>
   <si>
+    <t>GLAT</t>
+  </si>
+  <si>
+    <t>PHYTOSOM</t>
+  </si>
+  <si>
+    <t>ThermoPro</t>
+  </si>
+  <si>
     <t>IRM-A</t>
   </si>
   <si>
+    <t>TOPRA</t>
+  </si>
+  <si>
+    <t>IRMK01</t>
+  </si>
+  <si>
+    <t>ISOLED</t>
+  </si>
+  <si>
+    <t>ELASTUS</t>
+  </si>
+  <si>
+    <t>BBASL</t>
+  </si>
+  <si>
+    <t>Micro-MS</t>
+  </si>
+  <si>
+    <t>SOMNOSE</t>
+  </si>
+  <si>
+    <t>Opti-VIM</t>
+  </si>
+  <si>
+    <t>SKNA</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>SOFTERIV</t>
+  </si>
+  <si>
+    <t>BARVIT</t>
+  </si>
+  <si>
+    <t>N-SAC</t>
+  </si>
+  <si>
     <t>IA COLO</t>
   </si>
   <si>
-    <t>GLAT</t>
-  </si>
-  <si>
-    <t>SOMNOSE</t>
-  </si>
-  <si>
-    <t>IRMK01</t>
-  </si>
-  <si>
-    <t>Micro-MS</t>
-  </si>
-  <si>
-    <t>SKNA</t>
-  </si>
-  <si>
-    <t>AUBACOG</t>
-  </si>
-  <si>
-    <t>TOPRA</t>
-  </si>
-  <si>
-    <t>TAAS</t>
-  </si>
-  <si>
-    <t>SILENZ</t>
-  </si>
-  <si>
-    <t>PHYTOSOM</t>
-  </si>
-  <si>
-    <t>ThermoPro</t>
-  </si>
-  <si>
-    <t>Opti-VIM</t>
-  </si>
-  <si>
-    <t>ELASTUS</t>
-  </si>
-  <si>
-    <t>BARVIT</t>
-  </si>
-  <si>
-    <t>N-SAC</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>BBASL</t>
-  </si>
-  <si>
-    <t>SOFTERIV</t>
-  </si>
-  <si>
-    <t>ISOLED</t>
+    <t>PROBATAZO</t>
+  </si>
+  <si>
+    <t>SOMVOICE</t>
+  </si>
+  <si>
+    <t>NEUROWAKE</t>
+  </si>
+  <si>
+    <t>AMATOSTEO</t>
   </si>
   <si>
     <t>QETAL</t>
   </si>
   <si>
+    <t>PAPPEES</t>
+  </si>
+  <si>
+    <t>Eval 3V-BPCO</t>
+  </si>
+  <si>
+    <t>FEMQT</t>
+  </si>
+  <si>
+    <t>LARYTHERM</t>
+  </si>
+  <si>
+    <t>REACT 2</t>
+  </si>
+  <si>
+    <t>GRECCAR12</t>
+  </si>
+  <si>
     <t>HYPTEC</t>
   </si>
   <si>
-    <t>FEMQT</t>
-  </si>
-  <si>
-    <t>SOMVOICE</t>
-  </si>
-  <si>
     <t>SYNTAGME</t>
   </si>
   <si>
-    <t>PAPPEES</t>
-  </si>
-  <si>
-    <t>REACT 2</t>
-  </si>
-  <si>
-    <t>NEUROWAKE</t>
-  </si>
-  <si>
-    <t>AMATOSTEO</t>
+    <t>STOP</t>
   </si>
   <si>
     <t>InEurHeart</t>
   </si>
   <si>
+    <t>TranSpec</t>
+  </si>
+  <si>
     <t>DIABLO</t>
-  </si>
-  <si>
-    <t>GRECCAR12</t>
-  </si>
-  <si>
-    <t>TranSpec</t>
-  </si>
-  <si>
-    <t>Eval 3V-BPCO</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>PROBATAZO</t>
-  </si>
-  <si>
-    <t>LARYTHERM</t>
   </si>
   <si>
     <t>SYNTAGME 
@@ -2770,12 +2770,12 @@
     <t>DRUG</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>DEVICE</t>
   </si>
   <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
@@ -2785,13 +2785,13 @@
     <t>BIOLOGICAL</t>
   </si>
   <si>
+    <t>RADIATION</t>
+  </si>
+  <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
     <t>GENETIC</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
-  </si>
-  <si>
-    <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -3206,6 +3206,9 @@
       <c r="G2" t="s">
         <v>339</v>
       </c>
+      <c r="H2" t="s">
+        <v>626</v>
+      </c>
       <c r="I2" t="s">
         <v>911</v>
       </c>
@@ -3225,9 +3228,6 @@
       </c>
       <c r="G3" t="s">
         <v>340</v>
-      </c>
-      <c r="H3" t="s">
-        <v>626</v>
       </c>
       <c r="I3" t="s">
         <v>911</v>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -3362,7 +3362,7 @@
         <v>630</v>
       </c>
       <c r="I9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3385,7 +3385,7 @@
         <v>631</v>
       </c>
       <c r="I10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3408,15 +3408,15 @@
         <v>632</v>
       </c>
       <c r="I11" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -3431,7 +3431,7 @@
         <v>633</v>
       </c>
       <c r="I12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3477,15 +3477,15 @@
         <v>635</v>
       </c>
       <c r="I14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3500,15 +3500,15 @@
         <v>636</v>
       </c>
       <c r="I15" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -3523,7 +3523,7 @@
         <v>637</v>
       </c>
       <c r="I16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3546,7 +3546,7 @@
         <v>638</v>
       </c>
       <c r="I17" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3569,15 +3569,15 @@
         <v>639</v>
       </c>
       <c r="I18" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -3592,15 +3592,15 @@
         <v>640</v>
       </c>
       <c r="I19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -3615,7 +3615,7 @@
         <v>641</v>
       </c>
       <c r="I20" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3661,15 +3661,15 @@
         <v>643</v>
       </c>
       <c r="I22" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -3707,15 +3707,15 @@
         <v>645</v>
       </c>
       <c r="I24" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -3730,15 +3730,15 @@
         <v>646</v>
       </c>
       <c r="I25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -3799,7 +3799,7 @@
         <v>649</v>
       </c>
       <c r="I28" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3822,15 +3822,15 @@
         <v>650</v>
       </c>
       <c r="I29" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -3845,7 +3845,7 @@
         <v>651</v>
       </c>
       <c r="I30" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3868,15 +3868,15 @@
         <v>652</v>
       </c>
       <c r="I31" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -3891,7 +3891,7 @@
         <v>653</v>
       </c>
       <c r="I32" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3910,11 +3910,8 @@
       <c r="G33" t="s">
         <v>370</v>
       </c>
-      <c r="H33" t="s">
-        <v>654</v>
-      </c>
       <c r="I33" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3934,7 +3931,7 @@
         <v>371</v>
       </c>
       <c r="H34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I34" t="s">
         <v>911</v>
@@ -3942,10 +3939,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -3957,18 +3954,18 @@
         <v>372</v>
       </c>
       <c r="H35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I35" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -3980,10 +3977,10 @@
         <v>373</v>
       </c>
       <c r="H36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I36" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4003,10 +4000,10 @@
         <v>374</v>
       </c>
       <c r="H37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I37" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4025,8 +4022,11 @@
       <c r="G38" t="s">
         <v>375</v>
       </c>
+      <c r="H38" t="s">
+        <v>658</v>
+      </c>
       <c r="I38" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4049,7 +4049,7 @@
         <v>659</v>
       </c>
       <c r="I39" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4072,15 +4072,15 @@
         <v>660</v>
       </c>
       <c r="I40" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -4095,15 +4095,15 @@
         <v>661</v>
       </c>
       <c r="I41" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -4118,15 +4118,15 @@
         <v>662</v>
       </c>
       <c r="I42" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -4137,19 +4137,16 @@
       <c r="G43" t="s">
         <v>380</v>
       </c>
-      <c r="H43" t="s">
-        <v>663</v>
-      </c>
       <c r="I43" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -4161,10 +4158,10 @@
         <v>381</v>
       </c>
       <c r="H44" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4184,10 +4181,10 @@
         <v>382</v>
       </c>
       <c r="H45" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4207,18 +4204,18 @@
         <v>383</v>
       </c>
       <c r="H46" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I46" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -4230,10 +4227,10 @@
         <v>384</v>
       </c>
       <c r="H47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I47" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4253,18 +4250,18 @@
         <v>385</v>
       </c>
       <c r="H48" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I48" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -4276,18 +4273,18 @@
         <v>386</v>
       </c>
       <c r="H49" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I49" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
@@ -4298,16 +4295,19 @@
       <c r="G50" t="s">
         <v>387</v>
       </c>
+      <c r="H50" t="s">
+        <v>669</v>
+      </c>
       <c r="I50" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -4322,7 +4322,7 @@
         <v>670</v>
       </c>
       <c r="I51" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4345,7 +4345,7 @@
         <v>671</v>
       </c>
       <c r="I52" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4373,10 +4373,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
@@ -4391,15 +4391,15 @@
         <v>673</v>
       </c>
       <c r="I54" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
@@ -4437,7 +4437,7 @@
         <v>675</v>
       </c>
       <c r="I56" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4460,7 +4460,7 @@
         <v>676</v>
       </c>
       <c r="I57" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4483,7 +4483,7 @@
         <v>677</v>
       </c>
       <c r="I58" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4529,7 +4529,7 @@
         <v>679</v>
       </c>
       <c r="I60" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4552,15 +4552,15 @@
         <v>680</v>
       </c>
       <c r="I61" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
@@ -4575,15 +4575,15 @@
         <v>681</v>
       </c>
       <c r="I62" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
@@ -4598,7 +4598,7 @@
         <v>682</v>
       </c>
       <c r="I63" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4621,7 +4621,7 @@
         <v>683</v>
       </c>
       <c r="I64" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4644,7 +4644,7 @@
         <v>684</v>
       </c>
       <c r="I65" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4672,10 +4672,10 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -4690,7 +4690,7 @@
         <v>686</v>
       </c>
       <c r="I67" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4713,7 +4713,7 @@
         <v>687</v>
       </c>
       <c r="I68" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4736,7 +4736,7 @@
         <v>688</v>
       </c>
       <c r="I69" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4764,10 +4764,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
@@ -4782,7 +4782,7 @@
         <v>690</v>
       </c>
       <c r="I71" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4810,10 +4810,10 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
@@ -4828,7 +4828,7 @@
         <v>692</v>
       </c>
       <c r="I73" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4867,14 +4867,11 @@
       <c r="F75" t="s">
         <v>328</v>
       </c>
-      <c r="G75" t="s">
-        <v>412</v>
-      </c>
       <c r="H75" t="s">
         <v>694</v>
       </c>
       <c r="I75" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4891,13 +4888,13 @@
         <v>328</v>
       </c>
       <c r="G76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H76" t="s">
         <v>695</v>
       </c>
       <c r="I76" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4914,7 +4911,7 @@
         <v>328</v>
       </c>
       <c r="G77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H77" t="s">
         <v>696</v>
@@ -4936,11 +4933,14 @@
       <c r="F78" t="s">
         <v>328</v>
       </c>
+      <c r="G78" t="s">
+        <v>414</v>
+      </c>
       <c r="H78" t="s">
         <v>697</v>
       </c>
       <c r="I78" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4963,7 +4963,7 @@
         <v>698</v>
       </c>
       <c r="I79" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4979,11 +4979,14 @@
       <c r="F80" t="s">
         <v>328</v>
       </c>
+      <c r="G80" t="s">
+        <v>416</v>
+      </c>
       <c r="H80" t="s">
         <v>699</v>
       </c>
       <c r="I80" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5000,13 +5003,13 @@
         <v>328</v>
       </c>
       <c r="G81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H81" t="s">
         <v>700</v>
       </c>
       <c r="I81" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5023,21 +5026,21 @@
         <v>328</v>
       </c>
       <c r="G82" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H82" t="s">
         <v>701</v>
       </c>
       <c r="I82" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
@@ -5046,13 +5049,13 @@
         <v>328</v>
       </c>
       <c r="G83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H83" t="s">
         <v>702</v>
       </c>
       <c r="I83" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5069,13 +5072,13 @@
         <v>328</v>
       </c>
       <c r="G84" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H84" t="s">
         <v>703</v>
       </c>
       <c r="I84" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5092,21 +5095,21 @@
         <v>328</v>
       </c>
       <c r="G85" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H85" t="s">
         <v>704</v>
       </c>
       <c r="I85" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
@@ -5115,13 +5118,13 @@
         <v>328</v>
       </c>
       <c r="G86" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H86" t="s">
         <v>705</v>
       </c>
       <c r="I86" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5138,13 +5141,13 @@
         <v>328</v>
       </c>
       <c r="G87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H87" t="s">
         <v>706</v>
       </c>
       <c r="I87" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5160,14 +5163,11 @@
       <c r="F88" t="s">
         <v>328</v>
       </c>
-      <c r="G88" t="s">
-        <v>423</v>
-      </c>
       <c r="H88" t="s">
         <v>707</v>
       </c>
       <c r="I88" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5190,15 +5190,15 @@
         <v>708</v>
       </c>
       <c r="I89" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
@@ -5213,15 +5213,15 @@
         <v>709</v>
       </c>
       <c r="I90" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
@@ -5236,15 +5236,15 @@
         <v>710</v>
       </c>
       <c r="I91" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
@@ -5259,7 +5259,7 @@
         <v>711</v>
       </c>
       <c r="I92" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5278,6 +5278,9 @@
       <c r="G93" t="s">
         <v>428</v>
       </c>
+      <c r="H93" t="s">
+        <v>712</v>
+      </c>
       <c r="I93" t="s">
         <v>911</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>429</v>
       </c>
       <c r="H94" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I94" t="s">
         <v>913</v>
@@ -5322,25 +5325,22 @@
         <v>430</v>
       </c>
       <c r="H95" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I95" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
-      <c r="D96" t="s">
-        <v>301</v>
-      </c>
       <c r="F96" t="s">
         <v>329</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>431</v>
       </c>
       <c r="H96" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I96" t="s">
         <v>911</v>
@@ -5371,10 +5371,10 @@
         <v>432</v>
       </c>
       <c r="H97" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I97" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5394,18 +5394,18 @@
         <v>433</v>
       </c>
       <c r="H98" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I98" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
@@ -5417,7 +5417,7 @@
         <v>434</v>
       </c>
       <c r="H99" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I99" t="s">
         <v>912</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
@@ -5440,22 +5440,25 @@
         <v>435</v>
       </c>
       <c r="H100" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="I100" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
+      <c r="D101" t="s">
+        <v>301</v>
+      </c>
       <c r="F101" t="s">
         <v>329</v>
       </c>
@@ -5463,18 +5466,18 @@
         <v>436</v>
       </c>
       <c r="H101" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I101" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
         <v>117</v>
@@ -5486,10 +5489,10 @@
         <v>437</v>
       </c>
       <c r="H102" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I102" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5505,8 +5508,11 @@
       <c r="F103" t="s">
         <v>329</v>
       </c>
+      <c r="G103" t="s">
+        <v>438</v>
+      </c>
       <c r="H103" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I103" t="s">
         <v>915</v>
@@ -5526,13 +5532,13 @@
         <v>329</v>
       </c>
       <c r="G104" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H104" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I104" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5548,14 +5554,11 @@
       <c r="F105" t="s">
         <v>329</v>
       </c>
-      <c r="G105" t="s">
-        <v>439</v>
-      </c>
       <c r="H105" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I105" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5575,10 +5578,10 @@
         <v>440</v>
       </c>
       <c r="H106" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I106" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5598,10 +5601,10 @@
         <v>441</v>
       </c>
       <c r="H107" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I107" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5620,9 +5623,6 @@
       <c r="G108" t="s">
         <v>442</v>
       </c>
-      <c r="H108" t="s">
-        <v>726</v>
-      </c>
       <c r="I108" t="s">
         <v>911</v>
       </c>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>125</v>
@@ -5667,15 +5667,15 @@
         <v>728</v>
       </c>
       <c r="I110" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>126</v>
@@ -5683,22 +5683,19 @@
       <c r="F111" t="s">
         <v>330</v>
       </c>
-      <c r="G111" t="s">
-        <v>444</v>
-      </c>
       <c r="H111" t="s">
         <v>729</v>
       </c>
       <c r="I111" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
         <v>127</v>
@@ -5707,13 +5704,13 @@
         <v>330</v>
       </c>
       <c r="G112" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H112" t="s">
         <v>730</v>
       </c>
       <c r="I112" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5730,7 +5727,7 @@
         <v>330</v>
       </c>
       <c r="G113" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H113" t="s">
         <v>731</v>
@@ -5741,10 +5738,10 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
         <v>129</v>
@@ -5752,19 +5749,22 @@
       <c r="F114" t="s">
         <v>330</v>
       </c>
+      <c r="G114" t="s">
+        <v>446</v>
+      </c>
       <c r="H114" t="s">
         <v>732</v>
       </c>
       <c r="I114" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
         <v>130</v>
@@ -5772,9 +5772,6 @@
       <c r="F115" t="s">
         <v>330</v>
       </c>
-      <c r="G115" t="s">
-        <v>447</v>
-      </c>
       <c r="H115" t="s">
         <v>733</v>
       </c>
@@ -5784,10 +5781,10 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>131</v>
@@ -5796,13 +5793,13 @@
         <v>330</v>
       </c>
       <c r="G116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H116" t="s">
         <v>734</v>
       </c>
       <c r="I116" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5818,19 +5815,22 @@
       <c r="F117" t="s">
         <v>330</v>
       </c>
+      <c r="G117" t="s">
+        <v>448</v>
+      </c>
       <c r="H117" t="s">
         <v>735</v>
       </c>
       <c r="I117" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>133</v>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
         <v>134</v>
@@ -5861,22 +5861,19 @@
       <c r="F119" t="s">
         <v>330</v>
       </c>
-      <c r="G119" t="s">
-        <v>450</v>
-      </c>
       <c r="H119" t="s">
         <v>737</v>
       </c>
       <c r="I119" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>135</v>
@@ -5885,13 +5882,13 @@
         <v>330</v>
       </c>
       <c r="G120" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H120" t="s">
         <v>738</v>
       </c>
       <c r="I120" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5908,21 +5905,21 @@
         <v>330</v>
       </c>
       <c r="G121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H121" t="s">
         <v>739</v>
       </c>
       <c r="I121" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>137</v>
@@ -5931,13 +5928,13 @@
         <v>330</v>
       </c>
       <c r="G122" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H122" t="s">
         <v>740</v>
       </c>
       <c r="I122" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5954,21 +5951,21 @@
         <v>330</v>
       </c>
       <c r="G123" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H123" t="s">
         <v>741</v>
       </c>
       <c r="I123" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
         <v>139</v>
@@ -5977,21 +5974,21 @@
         <v>330</v>
       </c>
       <c r="G124" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H124" t="s">
         <v>742</v>
       </c>
       <c r="I124" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>140</v>
@@ -6000,21 +5997,21 @@
         <v>330</v>
       </c>
       <c r="G125" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H125" t="s">
         <v>743</v>
       </c>
       <c r="I125" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
         <v>141</v>
@@ -6023,7 +6020,7 @@
         <v>330</v>
       </c>
       <c r="G126" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H126" t="s">
         <v>744</v>
@@ -6034,10 +6031,10 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
         <v>142</v>
@@ -6046,7 +6043,7 @@
         <v>330</v>
       </c>
       <c r="G127" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H127" t="s">
         <v>745</v>
@@ -6068,11 +6065,14 @@
       <c r="F128" t="s">
         <v>330</v>
       </c>
+      <c r="G128" t="s">
+        <v>458</v>
+      </c>
       <c r="H128" t="s">
         <v>746</v>
       </c>
       <c r="I128" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6095,7 +6095,7 @@
         <v>747</v>
       </c>
       <c r="I129" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6118,15 +6118,15 @@
         <v>748</v>
       </c>
       <c r="I130" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
         <v>146</v>
@@ -6141,7 +6141,7 @@
         <v>749</v>
       </c>
       <c r="I131" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6187,7 +6187,7 @@
         <v>751</v>
       </c>
       <c r="I133" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6210,7 +6210,7 @@
         <v>752</v>
       </c>
       <c r="I134" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6238,10 +6238,10 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
         <v>151</v>
@@ -6256,15 +6256,15 @@
         <v>754</v>
       </c>
       <c r="I136" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
         <v>152</v>
@@ -6307,10 +6307,10 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
         <v>154</v>
@@ -6330,10 +6330,10 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
         <v>155</v>
@@ -6341,14 +6341,11 @@
       <c r="F140" t="s">
         <v>331</v>
       </c>
-      <c r="G140" t="s">
-        <v>470</v>
-      </c>
       <c r="H140" t="s">
         <v>758</v>
       </c>
       <c r="I140" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6364,14 +6361,11 @@
       <c r="F141" t="s">
         <v>331</v>
       </c>
-      <c r="G141" t="s">
-        <v>471</v>
-      </c>
       <c r="H141" t="s">
         <v>759</v>
       </c>
       <c r="I141" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6388,21 +6382,21 @@
         <v>331</v>
       </c>
       <c r="G142" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H142" t="s">
         <v>760</v>
       </c>
       <c r="I142" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
         <v>158</v>
@@ -6411,7 +6405,7 @@
         <v>331</v>
       </c>
       <c r="G143" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H143" t="s">
         <v>761</v>
@@ -6422,10 +6416,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
         <v>159</v>
@@ -6434,13 +6428,13 @@
         <v>331</v>
       </c>
       <c r="G144" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H144" t="s">
         <v>762</v>
       </c>
       <c r="I144" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6456,11 +6450,14 @@
       <c r="F145" t="s">
         <v>331</v>
       </c>
+      <c r="G145" t="s">
+        <v>473</v>
+      </c>
       <c r="H145" t="s">
         <v>763</v>
       </c>
       <c r="I145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6476,11 +6473,14 @@
       <c r="F146" t="s">
         <v>331</v>
       </c>
+      <c r="G146" t="s">
+        <v>474</v>
+      </c>
       <c r="H146" t="s">
         <v>764</v>
       </c>
       <c r="I146" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6503,7 +6503,7 @@
         <v>765</v>
       </c>
       <c r="I147" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6526,15 +6526,15 @@
         <v>766</v>
       </c>
       <c r="I148" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
         <v>164</v>
@@ -6549,7 +6549,7 @@
         <v>767</v>
       </c>
       <c r="I149" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6572,7 +6572,7 @@
         <v>768</v>
       </c>
       <c r="I150" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6595,15 +6595,15 @@
         <v>769</v>
       </c>
       <c r="I151" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
         <v>167</v>
@@ -6618,7 +6618,7 @@
         <v>770</v>
       </c>
       <c r="I152" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6641,15 +6641,15 @@
         <v>771</v>
       </c>
       <c r="I153" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>169</v>
@@ -6687,7 +6687,7 @@
         <v>773</v>
       </c>
       <c r="I155" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6710,15 +6710,15 @@
         <v>774</v>
       </c>
       <c r="I156" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
         <v>172</v>
@@ -6738,13 +6738,13 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" t="s">
-        <v>173</v>
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>302</v>
       </c>
       <c r="F158" t="s">
         <v>332</v>
@@ -6755,9 +6755,6 @@
       <c r="H158" t="s">
         <v>776</v>
       </c>
-      <c r="I158" t="s">
-        <v>911</v>
-      </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
@@ -6766,8 +6763,8 @@
       <c r="B159" t="s">
         <v>13</v>
       </c>
-      <c r="C159" t="s">
-        <v>174</v>
+      <c r="D159" t="s">
+        <v>303</v>
       </c>
       <c r="F159" t="s">
         <v>332</v>
@@ -6776,10 +6773,7 @@
         <v>487</v>
       </c>
       <c r="H159" t="s">
-        <v>777</v>
-      </c>
-      <c r="I159" t="s">
-        <v>919</v>
+        <v>770</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6790,13 +6784,16 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F160" t="s">
         <v>332</v>
       </c>
+      <c r="G160" t="s">
+        <v>488</v>
+      </c>
       <c r="H160" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I160" t="s">
         <v>911</v>
@@ -6804,22 +6801,22 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F161" t="s">
         <v>332</v>
       </c>
       <c r="G161" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H161" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I161" t="s">
         <v>911</v>
@@ -6833,19 +6830,19 @@
         <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F162" t="s">
         <v>332</v>
       </c>
       <c r="G162" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H162" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I162" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6856,19 +6853,16 @@
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F163" t="s">
         <v>332</v>
       </c>
-      <c r="G163" t="s">
-        <v>490</v>
-      </c>
       <c r="H163" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I163" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6878,8 +6872,8 @@
       <c r="B164" t="s">
         <v>13</v>
       </c>
-      <c r="D164" t="s">
-        <v>302</v>
+      <c r="C164" t="s">
+        <v>177</v>
       </c>
       <c r="F164" t="s">
         <v>332</v>
@@ -6888,7 +6882,10 @@
         <v>491</v>
       </c>
       <c r="H164" t="s">
-        <v>782</v>
+        <v>781</v>
+      </c>
+      <c r="I164" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6899,7 +6896,7 @@
         <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F165" t="s">
         <v>332</v>
@@ -6908,7 +6905,7 @@
         <v>492</v>
       </c>
       <c r="H165" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I165" t="s">
         <v>914</v>
@@ -6922,16 +6919,19 @@
         <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F166" t="s">
         <v>332</v>
       </c>
+      <c r="G166" t="s">
+        <v>493</v>
+      </c>
       <c r="H166" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I166" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6942,42 +6942,42 @@
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F167" t="s">
         <v>332</v>
       </c>
       <c r="G167" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H167" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I167" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F168" t="s">
         <v>332</v>
       </c>
       <c r="G168" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H168" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I168" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6987,25 +6987,25 @@
       <c r="B169" t="s">
         <v>13</v>
       </c>
-      <c r="D169" t="s">
-        <v>303</v>
+      <c r="C169" t="s">
+        <v>182</v>
       </c>
       <c r="F169" t="s">
         <v>332</v>
       </c>
-      <c r="G169" t="s">
-        <v>495</v>
-      </c>
       <c r="H169" t="s">
-        <v>772</v>
+        <v>786</v>
+      </c>
+      <c r="I169" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C170" t="s">
         <v>183</v>
@@ -7020,15 +7020,15 @@
         <v>787</v>
       </c>
       <c r="I170" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
         <v>184</v>
@@ -7043,7 +7043,7 @@
         <v>788</v>
       </c>
       <c r="I171" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7066,7 +7066,7 @@
         <v>789</v>
       </c>
       <c r="I172" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7089,7 +7089,7 @@
         <v>790</v>
       </c>
       <c r="I173" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7135,7 +7135,7 @@
         <v>792</v>
       </c>
       <c r="I175" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7158,7 +7158,7 @@
         <v>793</v>
       </c>
       <c r="I176" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7181,7 +7181,7 @@
         <v>794</v>
       </c>
       <c r="I177" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7227,7 +7227,7 @@
         <v>796</v>
       </c>
       <c r="I179" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7257,8 +7257,8 @@
       <c r="B181" t="s">
         <v>13</v>
       </c>
-      <c r="C181" t="s">
-        <v>193</v>
+      <c r="D181" t="s">
+        <v>305</v>
       </c>
       <c r="F181" t="s">
         <v>333</v>
@@ -7269,19 +7269,16 @@
       <c r="H181" t="s">
         <v>798</v>
       </c>
-      <c r="I181" t="s">
-        <v>913</v>
-      </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F182" t="s">
         <v>333</v>
@@ -7293,18 +7290,18 @@
         <v>799</v>
       </c>
       <c r="I182" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F183" t="s">
         <v>333</v>
@@ -7316,7 +7313,7 @@
         <v>800</v>
       </c>
       <c r="I183" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7327,7 +7324,7 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F184" t="s">
         <v>333</v>
@@ -7336,7 +7333,7 @@
         <v>510</v>
       </c>
       <c r="H184" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I184" t="s">
         <v>914</v>
@@ -7350,7 +7347,7 @@
         <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F185" t="s">
         <v>333</v>
@@ -7359,7 +7356,7 @@
         <v>511</v>
       </c>
       <c r="H185" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I185" t="s">
         <v>914</v>
@@ -7373,16 +7370,19 @@
         <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F186" t="s">
         <v>333</v>
       </c>
+      <c r="G186" t="s">
+        <v>512</v>
+      </c>
       <c r="H186" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I186" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7392,17 +7392,17 @@
       <c r="B187" t="s">
         <v>13</v>
       </c>
-      <c r="D187" t="s">
-        <v>305</v>
+      <c r="C187" t="s">
+        <v>198</v>
       </c>
       <c r="F187" t="s">
         <v>333</v>
       </c>
-      <c r="G187" t="s">
-        <v>512</v>
-      </c>
       <c r="H187" t="s">
-        <v>790</v>
+        <v>803</v>
+      </c>
+      <c r="I187" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7412,8 +7412,8 @@
       <c r="B188" t="s">
         <v>13</v>
       </c>
-      <c r="D188" t="s">
-        <v>306</v>
+      <c r="C188" t="s">
+        <v>199</v>
       </c>
       <c r="F188" t="s">
         <v>333</v>
@@ -7422,7 +7422,10 @@
         <v>513</v>
       </c>
       <c r="H188" t="s">
-        <v>801</v>
+        <v>804</v>
+      </c>
+      <c r="I188" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7433,7 +7436,7 @@
         <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F189" t="s">
         <v>333</v>
@@ -7442,10 +7445,10 @@
         <v>514</v>
       </c>
       <c r="H189" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="I189" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7455,8 +7458,8 @@
       <c r="B190" t="s">
         <v>13</v>
       </c>
-      <c r="C190" t="s">
-        <v>200</v>
+      <c r="D190" t="s">
+        <v>306</v>
       </c>
       <c r="F190" t="s">
         <v>333</v>
@@ -7465,18 +7468,15 @@
         <v>515</v>
       </c>
       <c r="H190" t="s">
-        <v>805</v>
-      </c>
-      <c r="I190" t="s">
-        <v>913</v>
+        <v>789</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
         <v>201</v>
@@ -7537,7 +7537,7 @@
         <v>808</v>
       </c>
       <c r="I193" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7547,8 +7547,8 @@
       <c r="B194" t="s">
         <v>13</v>
       </c>
-      <c r="D194" t="s">
-        <v>307</v>
+      <c r="C194" t="s">
+        <v>204</v>
       </c>
       <c r="F194" t="s">
         <v>334</v>
@@ -7559,16 +7559,19 @@
       <c r="H194" t="s">
         <v>809</v>
       </c>
+      <c r="I194" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
-      </c>
-      <c r="C195" t="s">
-        <v>204</v>
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>307</v>
       </c>
       <c r="F195" t="s">
         <v>334</v>
@@ -7579,9 +7582,6 @@
       <c r="H195" t="s">
         <v>810</v>
       </c>
-      <c r="I195" t="s">
-        <v>911</v>
-      </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
@@ -7590,8 +7590,8 @@
       <c r="B196" t="s">
         <v>13</v>
       </c>
-      <c r="C196" t="s">
-        <v>205</v>
+      <c r="D196" t="s">
+        <v>308</v>
       </c>
       <c r="F196" t="s">
         <v>334</v>
@@ -7602,9 +7602,6 @@
       <c r="H196" t="s">
         <v>811</v>
       </c>
-      <c r="I196" t="s">
-        <v>920</v>
-      </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
@@ -7614,7 +7611,7 @@
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F197" t="s">
         <v>334</v>
@@ -7637,7 +7634,7 @@
         <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F198" t="s">
         <v>334</v>
@@ -7649,18 +7646,18 @@
         <v>813</v>
       </c>
       <c r="I198" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F199" t="s">
         <v>334</v>
@@ -7669,10 +7666,10 @@
         <v>524</v>
       </c>
       <c r="H199" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I199" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7683,7 +7680,7 @@
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F200" t="s">
         <v>334</v>
@@ -7692,10 +7689,10 @@
         <v>525</v>
       </c>
       <c r="H200" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I200" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7706,7 +7703,7 @@
         <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F201" t="s">
         <v>334</v>
@@ -7714,8 +7711,11 @@
       <c r="G201" t="s">
         <v>526</v>
       </c>
+      <c r="H201" t="s">
+        <v>815</v>
+      </c>
       <c r="I201" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7726,7 +7726,7 @@
         <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F202" t="s">
         <v>334</v>
@@ -7738,7 +7738,7 @@
         <v>816</v>
       </c>
       <c r="I202" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7749,19 +7749,16 @@
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F203" t="s">
         <v>334</v>
       </c>
-      <c r="G203" t="s">
-        <v>528</v>
-      </c>
       <c r="H203" t="s">
         <v>817</v>
       </c>
       <c r="I203" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7772,13 +7769,13 @@
         <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F204" t="s">
         <v>334</v>
       </c>
       <c r="G204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H204" t="s">
         <v>818</v>
@@ -7795,42 +7792,39 @@
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F205" t="s">
         <v>334</v>
       </c>
       <c r="G205" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H205" t="s">
         <v>819</v>
       </c>
       <c r="I205" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F206" t="s">
         <v>334</v>
       </c>
       <c r="G206" t="s">
-        <v>531</v>
-      </c>
-      <c r="H206" t="s">
-        <v>820</v>
+        <v>530</v>
       </c>
       <c r="I206" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7841,16 +7835,19 @@
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F207" t="s">
         <v>334</v>
       </c>
+      <c r="G207" t="s">
+        <v>531</v>
+      </c>
       <c r="H207" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I207" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7861,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F208" t="s">
         <v>334</v>
@@ -7870,21 +7867,21 @@
         <v>532</v>
       </c>
       <c r="H208" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I208" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" t="s">
-        <v>308</v>
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>217</v>
       </c>
       <c r="F209" t="s">
         <v>334</v>
@@ -7893,7 +7890,10 @@
         <v>533</v>
       </c>
       <c r="H209" t="s">
-        <v>810</v>
+        <v>822</v>
+      </c>
+      <c r="I209" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7939,7 +7939,7 @@
         <v>824</v>
       </c>
       <c r="I211" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7962,7 +7962,7 @@
         <v>825</v>
       </c>
       <c r="I212" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7985,15 +7985,15 @@
         <v>826</v>
       </c>
       <c r="I213" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
         <v>222</v>
@@ -8008,7 +8008,7 @@
         <v>827</v>
       </c>
       <c r="I214" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8031,7 +8031,7 @@
         <v>828</v>
       </c>
       <c r="I215" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8054,15 +8054,15 @@
         <v>829</v>
       </c>
       <c r="I216" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
         <v>225</v>
@@ -8110,8 +8110,8 @@
       <c r="B219" t="s">
         <v>13</v>
       </c>
-      <c r="D219" t="s">
-        <v>309</v>
+      <c r="C219" t="s">
+        <v>227</v>
       </c>
       <c r="F219" t="s">
         <v>335</v>
@@ -8122,6 +8122,9 @@
       <c r="H219" t="s">
         <v>832</v>
       </c>
+      <c r="I219" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
@@ -8131,7 +8134,7 @@
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F220" t="s">
         <v>335</v>
@@ -8143,7 +8146,7 @@
         <v>833</v>
       </c>
       <c r="I220" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8154,7 +8157,7 @@
         <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F221" t="s">
         <v>335</v>
@@ -8166,7 +8169,7 @@
         <v>834</v>
       </c>
       <c r="I221" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8177,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F222" t="s">
         <v>335</v>
@@ -8189,7 +8192,7 @@
         <v>835</v>
       </c>
       <c r="I222" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8200,7 +8203,7 @@
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F223" t="s">
         <v>335</v>
@@ -8217,13 +8220,13 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F224" t="s">
         <v>335</v>
@@ -8235,7 +8238,7 @@
         <v>837</v>
       </c>
       <c r="I224" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8246,7 +8249,7 @@
         <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F225" t="s">
         <v>335</v>
@@ -8258,7 +8261,7 @@
         <v>838</v>
       </c>
       <c r="I225" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -8269,7 +8272,7 @@
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F226" t="s">
         <v>335</v>
@@ -8281,7 +8284,7 @@
         <v>839</v>
       </c>
       <c r="I226" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8292,7 +8295,7 @@
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F227" t="s">
         <v>335</v>
@@ -8304,7 +8307,7 @@
         <v>840</v>
       </c>
       <c r="I227" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8314,8 +8317,8 @@
       <c r="B228" t="s">
         <v>13</v>
       </c>
-      <c r="C228" t="s">
-        <v>235</v>
+      <c r="D228" t="s">
+        <v>309</v>
       </c>
       <c r="F228" t="s">
         <v>335</v>
@@ -8326,9 +8329,6 @@
       <c r="H228" t="s">
         <v>841</v>
       </c>
-      <c r="I228" t="s">
-        <v>913</v>
-      </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
@@ -8355,10 +8355,10 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -8373,7 +8373,7 @@
         <v>843</v>
       </c>
       <c r="I230" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -8396,7 +8396,7 @@
         <v>844</v>
       </c>
       <c r="I231" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8442,7 +8442,7 @@
         <v>846</v>
       </c>
       <c r="I233" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8465,7 +8465,7 @@
         <v>847</v>
       </c>
       <c r="I234" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8488,7 +8488,7 @@
         <v>848</v>
       </c>
       <c r="I235" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8511,7 +8511,7 @@
         <v>849</v>
       </c>
       <c r="I236" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8534,7 +8534,7 @@
         <v>850</v>
       </c>
       <c r="I237" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8557,7 +8557,7 @@
         <v>851</v>
       </c>
       <c r="I238" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8580,7 +8580,7 @@
         <v>852</v>
       </c>
       <c r="I239" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8626,7 +8626,7 @@
         <v>854</v>
       </c>
       <c r="I241" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8649,7 +8649,7 @@
         <v>855</v>
       </c>
       <c r="I242" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8672,7 +8672,7 @@
         <v>856</v>
       </c>
       <c r="I243" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8695,7 +8695,7 @@
         <v>857</v>
       </c>
       <c r="I244" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8718,7 +8718,7 @@
         <v>858</v>
       </c>
       <c r="I245" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8741,7 +8741,7 @@
         <v>859</v>
       </c>
       <c r="I246" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8764,7 +8764,7 @@
         <v>860</v>
       </c>
       <c r="I247" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8787,7 +8787,7 @@
         <v>861</v>
       </c>
       <c r="I248" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8833,7 +8833,7 @@
         <v>863</v>
       </c>
       <c r="I250" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8856,7 +8856,7 @@
         <v>864</v>
       </c>
       <c r="I251" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8879,7 +8879,7 @@
         <v>865</v>
       </c>
       <c r="I252" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8902,7 +8902,7 @@
         <v>866</v>
       </c>
       <c r="I253" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8925,7 +8925,7 @@
         <v>867</v>
       </c>
       <c r="I254" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8948,7 +8948,7 @@
         <v>868</v>
       </c>
       <c r="I255" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8971,7 +8971,7 @@
         <v>869</v>
       </c>
       <c r="I256" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8994,7 +8994,7 @@
         <v>870</v>
       </c>
       <c r="I257" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -9063,7 +9063,7 @@
         <v>873</v>
       </c>
       <c r="I260" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9086,7 +9086,7 @@
         <v>874</v>
       </c>
       <c r="I261" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9109,7 +9109,7 @@
         <v>875</v>
       </c>
       <c r="I262" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -9132,7 +9132,7 @@
         <v>876</v>
       </c>
       <c r="I263" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -9155,7 +9155,7 @@
         <v>877</v>
       </c>
       <c r="I264" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -9178,7 +9178,7 @@
         <v>878</v>
       </c>
       <c r="I265" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -9201,7 +9201,7 @@
         <v>879</v>
       </c>
       <c r="I266" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9224,7 +9224,7 @@
         <v>880</v>
       </c>
       <c r="I267" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -9247,7 +9247,7 @@
         <v>881</v>
       </c>
       <c r="I268" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9270,7 +9270,7 @@
         <v>882</v>
       </c>
       <c r="I269" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9316,15 +9316,15 @@
         <v>884</v>
       </c>
       <c r="I271" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C272" t="s">
         <v>279</v>
@@ -9339,15 +9339,15 @@
         <v>885</v>
       </c>
       <c r="I272" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C273" t="s">
         <v>280</v>
@@ -9362,7 +9362,7 @@
         <v>886</v>
       </c>
       <c r="I273" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9385,7 +9385,7 @@
         <v>887</v>
       </c>
       <c r="I274" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9408,7 +9408,7 @@
         <v>888</v>
       </c>
       <c r="I275" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9431,7 +9431,7 @@
         <v>889</v>
       </c>
       <c r="I276" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9441,8 +9441,8 @@
       <c r="B277" t="s">
         <v>13</v>
       </c>
-      <c r="D277" t="s">
-        <v>310</v>
+      <c r="C277" t="s">
+        <v>284</v>
       </c>
       <c r="F277" t="s">
         <v>338</v>
@@ -9453,6 +9453,9 @@
       <c r="H277" t="s">
         <v>890</v>
       </c>
+      <c r="I277" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
@@ -9462,7 +9465,7 @@
         <v>13</v>
       </c>
       <c r="C278" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F278" t="s">
         <v>338</v>
@@ -9474,7 +9477,7 @@
         <v>891</v>
       </c>
       <c r="I278" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9485,7 +9488,7 @@
         <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F279" t="s">
         <v>338</v>
@@ -9497,7 +9500,7 @@
         <v>892</v>
       </c>
       <c r="I279" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9508,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F280" t="s">
         <v>338</v>
@@ -9531,7 +9534,7 @@
         <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F281" t="s">
         <v>338</v>
@@ -9554,7 +9557,7 @@
         <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F282" t="s">
         <v>338</v>
@@ -9577,7 +9580,7 @@
         <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F283" t="s">
         <v>338</v>
@@ -9589,7 +9592,7 @@
         <v>896</v>
       </c>
       <c r="I283" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9600,7 +9603,7 @@
         <v>13</v>
       </c>
       <c r="C284" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F284" t="s">
         <v>338</v>
@@ -9612,18 +9615,18 @@
         <v>897</v>
       </c>
       <c r="I284" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F285" t="s">
         <v>338</v>
@@ -9632,10 +9635,10 @@
         <v>609</v>
       </c>
       <c r="H285" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="I285" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -9646,7 +9649,7 @@
         <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F286" t="s">
         <v>338</v>
@@ -9655,7 +9658,7 @@
         <v>610</v>
       </c>
       <c r="H286" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I286" t="s">
         <v>915</v>
@@ -9669,7 +9672,7 @@
         <v>13</v>
       </c>
       <c r="C287" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F287" t="s">
         <v>338</v>
@@ -9678,10 +9681,10 @@
         <v>611</v>
       </c>
       <c r="H287" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I287" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -9692,7 +9695,7 @@
         <v>13</v>
       </c>
       <c r="C288" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F288" t="s">
         <v>338</v>
@@ -9701,10 +9704,10 @@
         <v>612</v>
       </c>
       <c r="H288" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I288" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -9715,7 +9718,7 @@
         <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F289" t="s">
         <v>338</v>
@@ -9724,10 +9727,10 @@
         <v>613</v>
       </c>
       <c r="H289" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I289" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -9738,7 +9741,7 @@
         <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F290" t="s">
         <v>338</v>
@@ -9747,10 +9750,10 @@
         <v>614</v>
       </c>
       <c r="H290" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I290" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -9761,7 +9764,7 @@
         <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F291" t="s">
         <v>338</v>
@@ -9770,10 +9773,10 @@
         <v>615</v>
       </c>
       <c r="H291" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I291" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -9784,7 +9787,7 @@
         <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F292" t="s">
         <v>338</v>
@@ -9793,10 +9796,10 @@
         <v>616</v>
       </c>
       <c r="H292" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I292" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -9807,7 +9810,7 @@
         <v>13</v>
       </c>
       <c r="C293" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F293" t="s">
         <v>338</v>
@@ -9816,21 +9819,21 @@
         <v>617</v>
       </c>
       <c r="H293" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I293" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
-      </c>
-      <c r="C294" t="s">
-        <v>300</v>
+        <v>13</v>
+      </c>
+      <c r="D294" t="s">
+        <v>310</v>
       </c>
       <c r="F294" t="s">
         <v>338</v>
@@ -9839,10 +9842,7 @@
         <v>618</v>
       </c>
       <c r="H294" t="s">
-        <v>906</v>
-      </c>
-      <c r="I294" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -9944,7 +9944,7 @@
         <v>624</v>
       </c>
       <c r="H300" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -9961,7 +9961,7 @@
         <v>625</v>
       </c>
       <c r="H301" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
